--- a/InputData/io-model/BPCiObIC/BAU Perc Cng in Output by ISIC Code.xlsx
+++ b/InputData/io-model/BPCiObIC/BAU Perc Cng in Output by ISIC Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-california\InputData\io-model\BPCiObIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\io-model\BPCiObIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DFFCF8-FAD8-4350-A420-23834A9E3C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0F33253-75FF-41AC-9CC4-E8B9C415D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2565,6 +2565,7 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2581,6 +2582,7 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3021,6 +3023,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3063,8 +3067,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Body: normal cell" xfId="10" xr:uid="{1E571901-62A3-490E-A9CE-5146011C1E6C}"/>
@@ -3362,12 +3364,12 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="77.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>665</v>
       </c>
@@ -3378,7 +3380,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3386,238 +3388,238 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="60" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="59" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="62" t="s">
         <v>699</v>
       </c>
       <c r="B45" s="84"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="75" t="s">
         <v>726</v>
       </c>
       <c r="B55" s="86"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>721</v>
       </c>
       <c r="B57"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>722</v>
       </c>
       <c r="B59"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>723</v>
       </c>
       <c r="B60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.0529130131709286</v>
       </c>
@@ -3625,7 +3627,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>10^6</f>
         <v>1000000</v>
@@ -3657,86 +3659,86 @@
       <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="14" width="11.453125" customWidth="1"/>
-    <col min="15" max="15" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104" t="s">
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-    </row>
-    <row r="3" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106" t="s">
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+    </row>
+    <row r="3" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="104" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104" t="s">
+      <c r="I3" s="106"/>
+      <c r="J3" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104" t="s">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="107"/>
+      <c r="N3" s="109"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="12">
         <v>2009</v>
       </c>
@@ -3777,7 +3779,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>59</v>
       </c>
@@ -3822,7 +3824,7 @@
       </c>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>60</v>
       </c>
@@ -3840,7 +3842,7 @@
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
     </row>
-    <row r="7" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>61</v>
       </c>
@@ -3889,7 +3891,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="31"/>
     </row>
-    <row r="8" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
@@ -3937,7 +3939,7 @@
       <c r="Q8" s="31"/>
       <c r="R8" s="31"/>
     </row>
-    <row r="9" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>65</v>
       </c>
@@ -3987,7 +3989,7 @@
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>67</v>
       </c>
@@ -4035,7 +4037,7 @@
       <c r="Q10" s="31"/>
       <c r="R10" s="31"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>69</v>
       </c>
@@ -4085,7 +4087,7 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>71</v>
       </c>
@@ -4135,7 +4137,7 @@
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>73</v>
       </c>
@@ -4185,7 +4187,7 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>75</v>
       </c>
@@ -4235,7 +4237,7 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>77</v>
       </c>
@@ -4283,7 +4285,7 @@
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>79</v>
       </c>
@@ -4333,7 +4335,7 @@
       <c r="Q16" s="31"/>
       <c r="R16" s="31"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>81</v>
       </c>
@@ -4383,7 +4385,7 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>83</v>
       </c>
@@ -4433,7 +4435,7 @@
       <c r="Q18" s="31"/>
       <c r="R18" s="31"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>85</v>
       </c>
@@ -4483,7 +4485,7 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>87</v>
       </c>
@@ -4531,7 +4533,7 @@
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>89</v>
       </c>
@@ -4581,7 +4583,7 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>91</v>
       </c>
@@ -4629,7 +4631,7 @@
       <c r="Q22" s="31"/>
       <c r="R22" s="31"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>93</v>
       </c>
@@ -4677,7 +4679,7 @@
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>95</v>
       </c>
@@ -4725,7 +4727,7 @@
       <c r="Q24" s="31"/>
       <c r="R24" s="31"/>
     </row>
-    <row r="25" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>97</v>
       </c>
@@ -4773,7 +4775,7 @@
       <c r="Q25" s="31"/>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>99</v>
       </c>
@@ -4821,7 +4823,7 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>101</v>
       </c>
@@ -4869,7 +4871,7 @@
       <c r="Q27" s="31"/>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>103</v>
       </c>
@@ -4917,7 +4919,7 @@
       <c r="Q28" s="31"/>
       <c r="R28" s="31"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>105</v>
       </c>
@@ -4965,7 +4967,7 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="31"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>107</v>
       </c>
@@ -5013,7 +5015,7 @@
       <c r="Q30" s="31"/>
       <c r="R30" s="31"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>109</v>
       </c>
@@ -5063,7 +5065,7 @@
       <c r="Q31" s="31"/>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>111</v>
       </c>
@@ -5111,7 +5113,7 @@
       <c r="Q32" s="31"/>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>113</v>
       </c>
@@ -5159,7 +5161,7 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>115</v>
       </c>
@@ -5209,7 +5211,7 @@
       <c r="Q34" s="31"/>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>117</v>
       </c>
@@ -5259,7 +5261,7 @@
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>119</v>
       </c>
@@ -5309,7 +5311,7 @@
       <c r="Q36" s="31"/>
       <c r="R36" s="31"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>121</v>
       </c>
@@ -5357,7 +5359,7 @@
       <c r="Q37" s="31"/>
       <c r="R37" s="31"/>
     </row>
-    <row r="38" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>123</v>
       </c>
@@ -5405,7 +5407,7 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>125</v>
       </c>
@@ -5453,7 +5455,7 @@
       <c r="Q39" s="31"/>
       <c r="R39" s="31"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>127</v>
       </c>
@@ -5503,7 +5505,7 @@
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>129</v>
       </c>
@@ -5551,7 +5553,7 @@
       <c r="Q41" s="31"/>
       <c r="R41" s="31"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>131</v>
       </c>
@@ -5599,7 +5601,7 @@
       <c r="Q42" s="31"/>
       <c r="R42" s="31"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>133</v>
       </c>
@@ -5649,7 +5651,7 @@
       <c r="Q43" s="31"/>
       <c r="R43" s="31"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>135</v>
       </c>
@@ -5699,7 +5701,7 @@
       <c r="Q44" s="31"/>
       <c r="R44" s="31"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>137</v>
       </c>
@@ -5746,7 +5748,7 @@
       <c r="Q45" s="31"/>
       <c r="R45" s="31"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>139</v>
       </c>
@@ -5796,7 +5798,7 @@
       <c r="Q46" s="31"/>
       <c r="R46" s="31"/>
     </row>
-    <row r="47" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>141</v>
       </c>
@@ -5846,7 +5848,7 @@
       <c r="Q47" s="31"/>
       <c r="R47" s="31"/>
     </row>
-    <row r="48" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>143</v>
       </c>
@@ -5896,7 +5898,7 @@
       <c r="Q48" s="31"/>
       <c r="R48" s="31"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>145</v>
       </c>
@@ -5946,7 +5948,7 @@
       <c r="Q49" s="31"/>
       <c r="R49" s="31"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
         <v>147</v>
       </c>
@@ -5996,7 +5998,7 @@
       <c r="Q50" s="31"/>
       <c r="R50" s="31"/>
     </row>
-    <row r="51" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>149</v>
       </c>
@@ -6046,7 +6048,7 @@
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>151</v>
       </c>
@@ -6096,7 +6098,7 @@
       <c r="Q52" s="31"/>
       <c r="R52" s="31"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>153</v>
       </c>
@@ -6146,7 +6148,7 @@
       <c r="Q53" s="31"/>
       <c r="R53" s="31"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>155</v>
       </c>
@@ -6194,7 +6196,7 @@
       <c r="Q54" s="31"/>
       <c r="R54" s="31"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>157</v>
       </c>
@@ -6242,7 +6244,7 @@
       <c r="Q55" s="31"/>
       <c r="R55" s="31"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>159</v>
       </c>
@@ -6290,7 +6292,7 @@
       <c r="Q56" s="31"/>
       <c r="R56" s="31"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>161</v>
       </c>
@@ -6340,7 +6342,7 @@
       <c r="Q57" s="31"/>
       <c r="R57" s="31"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>163</v>
       </c>
@@ -6390,7 +6392,7 @@
       <c r="Q58" s="31"/>
       <c r="R58" s="31"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>165</v>
       </c>
@@ -6440,7 +6442,7 @@
       <c r="Q59" s="31"/>
       <c r="R59" s="31"/>
     </row>
-    <row r="60" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>167</v>
       </c>
@@ -6490,7 +6492,7 @@
       <c r="Q60" s="31"/>
       <c r="R60" s="31"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>169</v>
       </c>
@@ -6538,7 +6540,7 @@
       <c r="Q61" s="31"/>
       <c r="R61" s="31"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>171</v>
       </c>
@@ -6588,7 +6590,7 @@
       <c r="Q62" s="31"/>
       <c r="R62" s="31"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>173</v>
       </c>
@@ -6635,7 +6637,7 @@
       <c r="Q63" s="31"/>
       <c r="R63" s="31"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>175</v>
       </c>
@@ -6685,7 +6687,7 @@
       <c r="Q64" s="31"/>
       <c r="R64" s="31"/>
     </row>
-    <row r="65" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>177</v>
       </c>
@@ -6735,7 +6737,7 @@
       <c r="Q65" s="31"/>
       <c r="R65" s="31"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>179</v>
       </c>
@@ -6783,7 +6785,7 @@
       <c r="Q66" s="31"/>
       <c r="R66" s="31"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
         <v>181</v>
       </c>
@@ -6833,7 +6835,7 @@
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
         <v>183</v>
       </c>
@@ -6881,7 +6883,7 @@
       <c r="Q68" s="31"/>
       <c r="R68" s="31"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>185</v>
       </c>
@@ -6929,7 +6931,7 @@
       <c r="Q69" s="31"/>
       <c r="R69" s="31"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>187</v>
       </c>
@@ -6977,7 +6979,7 @@
       <c r="Q70" s="31"/>
       <c r="R70" s="31"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>189</v>
       </c>
@@ -7025,7 +7027,7 @@
       <c r="Q71" s="31"/>
       <c r="R71" s="31"/>
     </row>
-    <row r="72" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>191</v>
       </c>
@@ -7073,7 +7075,7 @@
       <c r="Q72" s="31"/>
       <c r="R72" s="31"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
         <v>193</v>
       </c>
@@ -7121,7 +7123,7 @@
       <c r="Q73" s="31"/>
       <c r="R73" s="31"/>
     </row>
-    <row r="74" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
         <v>195</v>
       </c>
@@ -7169,7 +7171,7 @@
       <c r="Q74" s="31"/>
       <c r="R74" s="31"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
         <v>197</v>
       </c>
@@ -7217,7 +7219,7 @@
       <c r="Q75" s="31"/>
       <c r="R75" s="31"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
         <v>199</v>
       </c>
@@ -7265,7 +7267,7 @@
       <c r="Q76" s="31"/>
       <c r="R76" s="31"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
         <v>201</v>
       </c>
@@ -7315,7 +7317,7 @@
       <c r="Q77" s="31"/>
       <c r="R77" s="31"/>
     </row>
-    <row r="78" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>203</v>
       </c>
@@ -7363,7 +7365,7 @@
       <c r="Q78" s="31"/>
       <c r="R78" s="31"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>205</v>
       </c>
@@ -7411,7 +7413,7 @@
       <c r="Q79" s="31"/>
       <c r="R79" s="31"/>
     </row>
-    <row r="80" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>207</v>
       </c>
@@ -7459,7 +7461,7 @@
       <c r="Q80" s="31"/>
       <c r="R80" s="31"/>
     </row>
-    <row r="81" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
         <v>209</v>
       </c>
@@ -7507,7 +7509,7 @@
       <c r="Q81" s="31"/>
       <c r="R81" s="31"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>211</v>
       </c>
@@ -7555,7 +7557,7 @@
       <c r="Q82" s="31"/>
       <c r="R82" s="31"/>
     </row>
-    <row r="83" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
         <v>213</v>
       </c>
@@ -7603,7 +7605,7 @@
       <c r="Q83" s="31"/>
       <c r="R83" s="31"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>215</v>
       </c>
@@ -7651,7 +7653,7 @@
       <c r="Q84" s="31"/>
       <c r="R84" s="31"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
         <v>217</v>
       </c>
@@ -7701,7 +7703,7 @@
       <c r="Q85" s="31"/>
       <c r="R85" s="31"/>
     </row>
-    <row r="86" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
         <v>219</v>
       </c>
@@ -7749,7 +7751,7 @@
       <c r="Q86" s="31"/>
       <c r="R86" s="31"/>
     </row>
-    <row r="87" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
         <v>221</v>
       </c>
@@ -7797,7 +7799,7 @@
       <c r="Q87" s="31"/>
       <c r="R87" s="31"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
         <v>223</v>
       </c>
@@ -7845,7 +7847,7 @@
       <c r="Q88" s="31"/>
       <c r="R88" s="31"/>
     </row>
-    <row r="89" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
         <v>225</v>
       </c>
@@ -7893,7 +7895,7 @@
       <c r="Q89" s="31"/>
       <c r="R89" s="31"/>
     </row>
-    <row r="90" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
         <v>227</v>
       </c>
@@ -7941,7 +7943,7 @@
       <c r="Q90" s="31"/>
       <c r="R90" s="31"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
         <v>229</v>
       </c>
@@ -7989,7 +7991,7 @@
       <c r="Q91" s="31"/>
       <c r="R91" s="31"/>
     </row>
-    <row r="92" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>231</v>
       </c>
@@ -8039,7 +8041,7 @@
       <c r="Q92" s="31"/>
       <c r="R92" s="31"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>233</v>
       </c>
@@ -8087,7 +8089,7 @@
       <c r="Q93" s="31"/>
       <c r="R93" s="31"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>235</v>
       </c>
@@ -8135,7 +8137,7 @@
       <c r="Q94" s="31"/>
       <c r="R94" s="31"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
         <v>237</v>
       </c>
@@ -8183,7 +8185,7 @@
       <c r="Q95" s="31"/>
       <c r="R95" s="31"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
         <v>239</v>
       </c>
@@ -8231,7 +8233,7 @@
       <c r="Q96" s="31"/>
       <c r="R96" s="31"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
         <v>241</v>
       </c>
@@ -8279,7 +8281,7 @@
       <c r="Q97" s="31"/>
       <c r="R97" s="31"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
         <v>243</v>
       </c>
@@ -8329,7 +8331,7 @@
       <c r="Q98" s="31"/>
       <c r="R98" s="31"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
         <v>245</v>
       </c>
@@ -8379,7 +8381,7 @@
       <c r="Q99" s="31"/>
       <c r="R99" s="31"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
         <v>247</v>
       </c>
@@ -8429,7 +8431,7 @@
       <c r="Q100" s="31"/>
       <c r="R100" s="31"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
         <v>249</v>
       </c>
@@ -8479,7 +8481,7 @@
       <c r="Q101" s="31"/>
       <c r="R101" s="31"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>251</v>
       </c>
@@ -8529,7 +8531,7 @@
       <c r="Q102" s="31"/>
       <c r="R102" s="31"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
         <v>253</v>
       </c>
@@ -8579,7 +8581,7 @@
       <c r="Q103" s="31"/>
       <c r="R103" s="31"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
         <v>255</v>
       </c>
@@ -8629,7 +8631,7 @@
       <c r="Q104" s="31"/>
       <c r="R104" s="31"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
         <v>257</v>
       </c>
@@ -8679,7 +8681,7 @@
       <c r="Q105" s="31"/>
       <c r="R105" s="31"/>
     </row>
-    <row r="106" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
         <v>259</v>
       </c>
@@ -8727,7 +8729,7 @@
       <c r="Q106" s="31"/>
       <c r="R106" s="31"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="33" t="s">
         <v>261</v>
       </c>
@@ -8775,7 +8777,7 @@
       <c r="Q107" s="31"/>
       <c r="R107" s="31"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
         <v>263</v>
       </c>
@@ -8823,7 +8825,7 @@
       <c r="Q108" s="31"/>
       <c r="R108" s="31"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>265</v>
       </c>
@@ -8873,7 +8875,7 @@
       <c r="Q109" s="31"/>
       <c r="R109" s="31"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="33" t="s">
         <v>267</v>
       </c>
@@ -8921,7 +8923,7 @@
       <c r="Q110" s="31"/>
       <c r="R110" s="31"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="33" t="s">
         <v>269</v>
       </c>
@@ -8969,7 +8971,7 @@
       <c r="Q111" s="31"/>
       <c r="R111" s="31"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
         <v>271</v>
       </c>
@@ -9019,7 +9021,7 @@
       <c r="Q112" s="31"/>
       <c r="R112" s="31"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
         <v>273</v>
       </c>
@@ -9069,7 +9071,7 @@
       <c r="Q113" s="31"/>
       <c r="R113" s="31"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
         <v>275</v>
       </c>
@@ -9117,7 +9119,7 @@
       <c r="Q114" s="31"/>
       <c r="R114" s="31"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
         <v>277</v>
       </c>
@@ -9165,7 +9167,7 @@
       <c r="Q115" s="31"/>
       <c r="R115" s="31"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
         <v>279</v>
       </c>
@@ -9213,7 +9215,7 @@
       <c r="Q116" s="31"/>
       <c r="R116" s="31"/>
     </row>
-    <row r="117" spans="1:18" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
         <v>281</v>
       </c>
@@ -9261,7 +9263,7 @@
       <c r="Q117" s="31"/>
       <c r="R117" s="31"/>
     </row>
-    <row r="118" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
         <v>283</v>
       </c>
@@ -9311,7 +9313,7 @@
       <c r="Q118" s="31"/>
       <c r="R118" s="31"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
         <v>285</v>
       </c>
@@ -9359,7 +9361,7 @@
       <c r="Q119" s="31"/>
       <c r="R119" s="31"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
         <v>287</v>
       </c>
@@ -9407,7 +9409,7 @@
       <c r="Q120" s="31"/>
       <c r="R120" s="31"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>289</v>
       </c>
@@ -9455,7 +9457,7 @@
       <c r="Q121" s="31"/>
       <c r="R121" s="31"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
         <v>291</v>
       </c>
@@ -9503,7 +9505,7 @@
       <c r="Q122" s="31"/>
       <c r="R122" s="31"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
         <v>293</v>
       </c>
@@ -9551,7 +9553,7 @@
       <c r="Q123" s="31"/>
       <c r="R123" s="31"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="33" t="s">
         <v>295</v>
       </c>
@@ -9599,7 +9601,7 @@
       <c r="Q124" s="31"/>
       <c r="R124" s="31"/>
     </row>
-    <row r="125" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>297</v>
       </c>
@@ -9647,7 +9649,7 @@
       <c r="Q125" s="31"/>
       <c r="R125" s="31"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
         <v>299</v>
       </c>
@@ -9695,7 +9697,7 @@
       <c r="Q126" s="31"/>
       <c r="R126" s="31"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
         <v>301</v>
       </c>
@@ -9743,7 +9745,7 @@
       <c r="Q127" s="31"/>
       <c r="R127" s="31"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
         <v>303</v>
       </c>
@@ -9791,7 +9793,7 @@
       <c r="Q128" s="31"/>
       <c r="R128" s="31"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
         <v>305</v>
       </c>
@@ -9839,7 +9841,7 @@
       <c r="Q129" s="31"/>
       <c r="R129" s="31"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>307</v>
       </c>
@@ -9889,7 +9891,7 @@
       <c r="Q130" s="31"/>
       <c r="R130" s="31"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>309</v>
       </c>
@@ -9937,7 +9939,7 @@
       <c r="Q131" s="31"/>
       <c r="R131" s="31"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
         <v>311</v>
       </c>
@@ -9985,7 +9987,7 @@
       <c r="Q132" s="31"/>
       <c r="R132" s="31"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="33" t="s">
         <v>313</v>
       </c>
@@ -10035,7 +10037,7 @@
       <c r="Q133" s="31"/>
       <c r="R133" s="31"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="33" t="s">
         <v>315</v>
       </c>
@@ -10085,7 +10087,7 @@
       <c r="Q134" s="31"/>
       <c r="R134" s="31"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
         <v>317</v>
       </c>
@@ -10133,7 +10135,7 @@
       <c r="Q135" s="31"/>
       <c r="R135" s="31"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
         <v>319</v>
       </c>
@@ -10181,7 +10183,7 @@
       <c r="Q136" s="31"/>
       <c r="R136" s="31"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
         <v>321</v>
       </c>
@@ -10231,7 +10233,7 @@
       <c r="Q137" s="31"/>
       <c r="R137" s="31"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="33" t="s">
         <v>324</v>
       </c>
@@ -10279,7 +10281,7 @@
       <c r="Q138" s="31"/>
       <c r="R138" s="31"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>326</v>
       </c>
@@ -10327,7 +10329,7 @@
       <c r="Q139" s="31"/>
       <c r="R139" s="31"/>
     </row>
-    <row r="140" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>328</v>
       </c>
@@ -10375,7 +10377,7 @@
       <c r="Q140" s="31"/>
       <c r="R140" s="31"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
         <v>330</v>
       </c>
@@ -10425,7 +10427,7 @@
       <c r="Q141" s="31"/>
       <c r="R141" s="31"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
         <v>332</v>
       </c>
@@ -10475,7 +10477,7 @@
       <c r="Q142" s="31"/>
       <c r="R142" s="31"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
         <v>334</v>
       </c>
@@ -10525,7 +10527,7 @@
       <c r="Q143" s="31"/>
       <c r="R143" s="31"/>
     </row>
-    <row r="144" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A144" s="33" t="s">
         <v>336</v>
       </c>
@@ -10573,7 +10575,7 @@
       <c r="Q144" s="31"/>
       <c r="R144" s="31"/>
     </row>
-    <row r="145" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A145" s="33" t="s">
         <v>338</v>
       </c>
@@ -10621,7 +10623,7 @@
       <c r="Q145" s="31"/>
       <c r="R145" s="31"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="33" t="s">
         <v>340</v>
       </c>
@@ -10669,7 +10671,7 @@
       <c r="Q146" s="31"/>
       <c r="R146" s="31"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="33" t="s">
         <v>342</v>
       </c>
@@ -10717,7 +10719,7 @@
       <c r="Q147" s="31"/>
       <c r="R147" s="31"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="33" t="s">
         <v>344</v>
       </c>
@@ -10765,7 +10767,7 @@
       <c r="Q148" s="31"/>
       <c r="R148" s="31"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="33" t="s">
         <v>346</v>
       </c>
@@ -10813,7 +10815,7 @@
       <c r="Q149" s="31"/>
       <c r="R149" s="31"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="33" t="s">
         <v>348</v>
       </c>
@@ -10863,7 +10865,7 @@
       <c r="Q150" s="31"/>
       <c r="R150" s="31"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="33" t="s">
         <v>350</v>
       </c>
@@ -10913,7 +10915,7 @@
       <c r="Q151" s="31"/>
       <c r="R151" s="31"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="33" t="s">
         <v>352</v>
       </c>
@@ -10961,7 +10963,7 @@
       <c r="Q152" s="31"/>
       <c r="R152" s="31"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="33" t="s">
         <v>354</v>
       </c>
@@ -11009,7 +11011,7 @@
       <c r="Q153" s="31"/>
       <c r="R153" s="31"/>
     </row>
-    <row r="154" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="33" t="s">
         <v>356</v>
       </c>
@@ -11057,7 +11059,7 @@
       <c r="Q154" s="31"/>
       <c r="R154" s="31"/>
     </row>
-    <row r="155" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="33" t="s">
         <v>358</v>
       </c>
@@ -11105,7 +11107,7 @@
       <c r="Q155" s="31"/>
       <c r="R155" s="31"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="33" t="s">
         <v>360</v>
       </c>
@@ -11155,7 +11157,7 @@
       <c r="Q156" s="31"/>
       <c r="R156" s="31"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
         <v>362</v>
       </c>
@@ -11203,7 +11205,7 @@
       <c r="Q157" s="31"/>
       <c r="R157" s="31"/>
     </row>
-    <row r="158" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="33" t="s">
         <v>364</v>
       </c>
@@ -11251,7 +11253,7 @@
       <c r="Q158" s="31"/>
       <c r="R158" s="31"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="33" t="s">
         <v>366</v>
       </c>
@@ -11299,7 +11301,7 @@
       <c r="Q159" s="31"/>
       <c r="R159" s="31"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="33" t="s">
         <v>368</v>
       </c>
@@ -11347,7 +11349,7 @@
       <c r="Q160" s="31"/>
       <c r="R160" s="31"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="33" t="s">
         <v>370</v>
       </c>
@@ -11395,7 +11397,7 @@
       <c r="Q161" s="31"/>
       <c r="R161" s="31"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="33" t="s">
         <v>372</v>
       </c>
@@ -11443,7 +11445,7 @@
       <c r="Q162" s="31"/>
       <c r="R162" s="31"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="33" t="s">
         <v>374</v>
       </c>
@@ -11491,7 +11493,7 @@
       <c r="Q163" s="31"/>
       <c r="R163" s="31"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="33" t="s">
         <v>376</v>
       </c>
@@ -11539,7 +11541,7 @@
       <c r="Q164" s="31"/>
       <c r="R164" s="31"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="33" t="s">
         <v>378</v>
       </c>
@@ -11587,7 +11589,7 @@
       <c r="Q165" s="31"/>
       <c r="R165" s="31"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="33" t="s">
         <v>380</v>
       </c>
@@ -11637,7 +11639,7 @@
       <c r="Q166" s="31"/>
       <c r="R166" s="31"/>
     </row>
-    <row r="167" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>382</v>
       </c>
@@ -11685,7 +11687,7 @@
       <c r="Q167" s="31"/>
       <c r="R167" s="31"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
         <v>384</v>
       </c>
@@ -11735,7 +11737,7 @@
       <c r="Q168" s="31"/>
       <c r="R168" s="31"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="33" t="s">
         <v>386</v>
       </c>
@@ -11783,7 +11785,7 @@
       <c r="Q169" s="31"/>
       <c r="R169" s="31"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="33" t="s">
         <v>388</v>
       </c>
@@ -11831,7 +11833,7 @@
       <c r="Q170" s="31"/>
       <c r="R170" s="31"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="33" t="s">
         <v>390</v>
       </c>
@@ -11879,7 +11881,7 @@
       <c r="Q171" s="31"/>
       <c r="R171" s="31"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="33" t="s">
         <v>392</v>
       </c>
@@ -11927,7 +11929,7 @@
       <c r="Q172" s="31"/>
       <c r="R172" s="31"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="33" t="s">
         <v>394</v>
       </c>
@@ -11975,7 +11977,7 @@
       <c r="Q173" s="31"/>
       <c r="R173" s="31"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
         <v>396</v>
       </c>
@@ -12023,7 +12025,7 @@
       <c r="Q174" s="31"/>
       <c r="R174" s="31"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
         <v>398</v>
       </c>
@@ -12071,7 +12073,7 @@
       <c r="Q175" s="31"/>
       <c r="R175" s="31"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="33" t="s">
         <v>400</v>
       </c>
@@ -12119,7 +12121,7 @@
       <c r="Q176" s="31"/>
       <c r="R176" s="31"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>402</v>
       </c>
@@ -12169,7 +12171,7 @@
       <c r="Q177" s="31"/>
       <c r="R177" s="31"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="33" t="s">
         <v>404</v>
       </c>
@@ -12219,7 +12221,7 @@
       <c r="Q178" s="31"/>
       <c r="R178" s="31"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="33" t="s">
         <v>406</v>
       </c>
@@ -12267,7 +12269,7 @@
       <c r="Q179" s="31"/>
       <c r="R179" s="31"/>
     </row>
-    <row r="180" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>408</v>
       </c>
@@ -12315,7 +12317,7 @@
       <c r="Q180" s="31"/>
       <c r="R180" s="31"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="33" t="s">
         <v>410</v>
       </c>
@@ -12363,7 +12365,7 @@
       <c r="Q181" s="31"/>
       <c r="R181" s="31"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="33" t="s">
         <v>412</v>
       </c>
@@ -12413,7 +12415,7 @@
       <c r="Q182" s="31"/>
       <c r="R182" s="31"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>414</v>
       </c>
@@ -12461,7 +12463,7 @@
       <c r="Q183" s="31"/>
       <c r="R183" s="31"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="33" t="s">
         <v>416</v>
       </c>
@@ -12509,7 +12511,7 @@
       <c r="Q184" s="31"/>
       <c r="R184" s="31"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="33" t="s">
         <v>418</v>
       </c>
@@ -12557,7 +12559,7 @@
       <c r="Q185" s="31"/>
       <c r="R185" s="31"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="33" t="s">
         <v>420</v>
       </c>
@@ -12605,7 +12607,7 @@
       <c r="Q186" s="31"/>
       <c r="R186" s="31"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="33" t="s">
         <v>422</v>
       </c>
@@ -12653,7 +12655,7 @@
       <c r="Q187" s="31"/>
       <c r="R187" s="31"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
         <v>424</v>
       </c>
@@ -12701,7 +12703,7 @@
       <c r="Q188" s="31"/>
       <c r="R188" s="31"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
         <v>426</v>
       </c>
@@ -12749,7 +12751,7 @@
       <c r="Q189" s="31"/>
       <c r="R189" s="31"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
         <v>428</v>
       </c>
@@ -12797,7 +12799,7 @@
       <c r="Q190" s="31"/>
       <c r="R190" s="31"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>430</v>
       </c>
@@ -12845,7 +12847,7 @@
       <c r="Q191" s="31"/>
       <c r="R191" s="31"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="33" t="s">
         <v>432</v>
       </c>
@@ -12893,7 +12895,7 @@
       <c r="Q192" s="31"/>
       <c r="R192" s="31"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="33" t="s">
         <v>434</v>
       </c>
@@ -12941,7 +12943,7 @@
       <c r="Q193" s="31"/>
       <c r="R193" s="31"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="33" t="s">
         <v>436</v>
       </c>
@@ -12989,7 +12991,7 @@
       <c r="Q194" s="31"/>
       <c r="R194" s="31"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="33" t="s">
         <v>438</v>
       </c>
@@ -13037,7 +13039,7 @@
       <c r="Q195" s="31"/>
       <c r="R195" s="31"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="33" t="s">
         <v>440</v>
       </c>
@@ -13085,7 +13087,7 @@
       <c r="Q196" s="31"/>
       <c r="R196" s="31"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="33" t="s">
         <v>442</v>
       </c>
@@ -13135,7 +13137,7 @@
       <c r="Q197" s="31"/>
       <c r="R197" s="31"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="33" t="s">
         <v>444</v>
       </c>
@@ -13183,7 +13185,7 @@
       <c r="Q198" s="31"/>
       <c r="R198" s="31"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="33" t="s">
         <v>446</v>
       </c>
@@ -13231,7 +13233,7 @@
       <c r="Q199" s="31"/>
       <c r="R199" s="31"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>448</v>
       </c>
@@ -13279,7 +13281,7 @@
       <c r="Q200" s="31"/>
       <c r="R200" s="31"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="33" t="s">
         <v>450</v>
       </c>
@@ -13327,7 +13329,7 @@
       <c r="Q201" s="31"/>
       <c r="R201" s="31"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="32" t="s">
         <v>452</v>
       </c>
@@ -13375,7 +13377,7 @@
       <c r="Q202" s="31"/>
       <c r="R202" s="31"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="32" t="s">
         <v>454</v>
       </c>
@@ -13423,7 +13425,7 @@
       <c r="Q203" s="31"/>
       <c r="R203" s="31"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="32" t="s">
         <v>456</v>
       </c>
@@ -13471,7 +13473,7 @@
       <c r="Q204" s="31"/>
       <c r="R204" s="31"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="33" t="s">
         <v>458</v>
       </c>
@@ -13519,7 +13521,7 @@
       <c r="Q205" s="31"/>
       <c r="R205" s="31"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="33" t="s">
         <v>460</v>
       </c>
@@ -13567,7 +13569,7 @@
       <c r="Q206" s="31"/>
       <c r="R206" s="31"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="33" t="s">
         <v>462</v>
       </c>
@@ -13615,7 +13617,7 @@
       <c r="Q207" s="31"/>
       <c r="R207" s="31"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="33" t="s">
         <v>464</v>
       </c>
@@ -13665,7 +13667,7 @@
       <c r="Q208" s="31"/>
       <c r="R208" s="31"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="33" t="s">
         <v>466</v>
       </c>
@@ -13713,7 +13715,7 @@
       <c r="Q209" s="31"/>
       <c r="R209" s="31"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="33" t="s">
         <v>468</v>
       </c>
@@ -13761,7 +13763,7 @@
       <c r="Q210" s="31"/>
       <c r="R210" s="31"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="33" t="s">
         <v>470</v>
       </c>
@@ -13809,7 +13811,7 @@
       <c r="Q211" s="31"/>
       <c r="R211" s="31"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="33" t="s">
         <v>472</v>
       </c>
@@ -13857,7 +13859,7 @@
       <c r="Q212" s="31"/>
       <c r="R212" s="31"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="33" t="s">
         <v>474</v>
       </c>
@@ -13905,7 +13907,7 @@
       <c r="Q213" s="31"/>
       <c r="R213" s="31"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="33" t="s">
         <v>476</v>
       </c>
@@ -13953,7 +13955,7 @@
       <c r="Q214" s="31"/>
       <c r="R214" s="31"/>
     </row>
-    <row r="215" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="33" t="s">
         <v>478</v>
       </c>
@@ -14001,7 +14003,7 @@
       <c r="Q215" s="31"/>
       <c r="R215" s="31"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="33" t="s">
         <v>480</v>
       </c>
@@ -14049,7 +14051,7 @@
       <c r="Q216" s="31"/>
       <c r="R216" s="31"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="33" t="s">
         <v>482</v>
       </c>
@@ -14097,7 +14099,7 @@
       <c r="Q217" s="31"/>
       <c r="R217" s="31"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="33" t="s">
         <v>484</v>
       </c>
@@ -14145,7 +14147,7 @@
       <c r="Q218" s="31"/>
       <c r="R218" s="31"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="33" t="s">
         <v>486</v>
       </c>
@@ -14193,7 +14195,7 @@
       <c r="Q219" s="31"/>
       <c r="R219" s="31"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="33" t="s">
         <v>488</v>
       </c>
@@ -14241,7 +14243,7 @@
       <c r="Q220" s="31"/>
       <c r="R220" s="31"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="33" t="s">
         <v>490</v>
       </c>
@@ -14289,7 +14291,7 @@
       <c r="Q221" s="31"/>
       <c r="R221" s="31"/>
     </row>
-    <row r="222" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="32" t="s">
         <v>492</v>
       </c>
@@ -14337,7 +14339,7 @@
       <c r="Q222" s="31"/>
       <c r="R222" s="31"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="33" t="s">
         <v>493</v>
       </c>
@@ -14385,7 +14387,7 @@
       <c r="Q223" s="31"/>
       <c r="R223" s="31"/>
     </row>
-    <row r="224" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="33" t="s">
         <v>495</v>
       </c>
@@ -14433,7 +14435,7 @@
       <c r="Q224" s="31"/>
       <c r="R224" s="31"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="32" t="s">
         <v>497</v>
       </c>
@@ -14481,7 +14483,7 @@
       <c r="Q225" s="31"/>
       <c r="R225" s="31"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="20" t="s">
         <v>499</v>
       </c>
@@ -14531,7 +14533,7 @@
       <c r="Q226" s="31"/>
       <c r="R226" s="31"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="33" t="s">
         <v>60</v>
       </c>
@@ -14578,7 +14580,7 @@
       <c r="Q227" s="31"/>
       <c r="R227" s="31"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="33" t="s">
         <v>502</v>
       </c>
@@ -14628,7 +14630,7 @@
       <c r="Q228" s="31"/>
       <c r="R228" s="31"/>
     </row>
-    <row r="229" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="33" t="s">
         <v>299</v>
       </c>
@@ -14676,7 +14678,7 @@
       <c r="Q229" s="31"/>
       <c r="R229" s="31"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="38" t="s">
         <v>503</v>
       </c>
@@ -14724,7 +14726,7 @@
       <c r="Q230" s="31"/>
       <c r="R230" s="31"/>
     </row>
-    <row r="231" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="38" t="s">
         <v>504</v>
       </c>
@@ -14772,7 +14774,7 @@
       <c r="Q231" s="31"/>
       <c r="R231" s="31"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="33" t="s">
         <v>505</v>
       </c>
@@ -14820,7 +14822,7 @@
       <c r="Q232" s="31"/>
       <c r="R232" s="31"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="33" t="s">
         <v>506</v>
       </c>
@@ -14868,7 +14870,7 @@
       <c r="Q233" s="31"/>
       <c r="R233" s="31"/>
     </row>
-    <row r="234" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="33" t="s">
         <v>507</v>
       </c>
@@ -14916,7 +14918,7 @@
       <c r="Q234" s="31"/>
       <c r="R234" s="31"/>
     </row>
-    <row r="235" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="33" t="s">
         <v>508</v>
       </c>
@@ -14964,7 +14966,7 @@
       <c r="Q235" s="31"/>
       <c r="R235" s="31"/>
     </row>
-    <row r="236" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="33" t="s">
         <v>509</v>
       </c>
@@ -15012,7 +15014,7 @@
       <c r="Q236" s="31"/>
       <c r="R236" s="31"/>
     </row>
-    <row r="237" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="39" t="s">
         <v>510</v>
       </c>
@@ -15060,7 +15062,7 @@
       <c r="Q237" s="31"/>
       <c r="R237" s="31"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="33" t="s">
         <v>511</v>
       </c>
@@ -15108,7 +15110,7 @@
       <c r="Q238" s="31"/>
       <c r="R238" s="31"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="20" t="s">
         <v>512</v>
       </c>
@@ -15158,7 +15160,7 @@
       <c r="Q239" s="31"/>
       <c r="R239" s="31"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="33" t="s">
         <v>513</v>
       </c>
@@ -15206,7 +15208,7 @@
       <c r="Q240" s="31"/>
       <c r="R240" s="31"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="33" t="s">
         <v>514</v>
       </c>
@@ -15254,7 +15256,7 @@
       <c r="Q241" s="31"/>
       <c r="R241" s="31"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="33" t="s">
         <v>515</v>
       </c>
@@ -15302,7 +15304,7 @@
       <c r="Q242" s="31"/>
       <c r="R242" s="31"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="33" t="s">
         <v>516</v>
       </c>
@@ -15350,7 +15352,7 @@
       <c r="Q243" s="31"/>
       <c r="R243" s="31"/>
     </row>
-    <row r="244" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="33" t="s">
         <v>517</v>
       </c>
@@ -15398,7 +15400,7 @@
       <c r="Q244" s="31"/>
       <c r="R244" s="31"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="33" t="s">
         <v>518</v>
       </c>
@@ -15446,7 +15448,7 @@
       <c r="Q245" s="31"/>
       <c r="R245" s="31"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="33" t="s">
         <v>519</v>
       </c>
@@ -15494,7 +15496,7 @@
       <c r="Q246" s="31"/>
       <c r="R246" s="31"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="33" t="s">
         <v>520</v>
       </c>
@@ -15542,7 +15544,7 @@
       <c r="Q247" s="31"/>
       <c r="R247" s="31"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="33" t="s">
         <v>521</v>
       </c>
@@ -15590,7 +15592,7 @@
       <c r="Q248" s="31"/>
       <c r="R248" s="31"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="33" t="s">
         <v>522</v>
       </c>
@@ -15638,7 +15640,7 @@
       <c r="Q249" s="31"/>
       <c r="R249" s="31"/>
     </row>
-    <row r="250" spans="1:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="33" t="s">
         <v>523</v>
       </c>
@@ -15686,7 +15688,7 @@
       <c r="Q250" s="31"/>
       <c r="R250" s="31"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="33" t="s">
         <v>524</v>
       </c>
@@ -15734,7 +15736,7 @@
       <c r="Q251" s="31"/>
       <c r="R251" s="31"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="33" t="s">
         <v>525</v>
       </c>
@@ -15784,7 +15786,7 @@
       <c r="Q252" s="31"/>
       <c r="R252" s="31"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="33" t="s">
         <v>527</v>
       </c>
@@ -15832,7 +15834,7 @@
       <c r="Q253" s="31"/>
       <c r="R253" s="31"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="33" t="s">
         <v>529</v>
       </c>
@@ -15880,7 +15882,7 @@
       <c r="Q254" s="31"/>
       <c r="R254" s="31"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="33" t="s">
         <v>531</v>
       </c>
@@ -15928,7 +15930,7 @@
       <c r="Q255" s="31"/>
       <c r="R255" s="31"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="33" t="s">
         <v>533</v>
       </c>
@@ -15976,7 +15978,7 @@
       <c r="Q256" s="31"/>
       <c r="R256" s="31"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="33" t="s">
         <v>535</v>
       </c>
@@ -16024,7 +16026,7 @@
       <c r="Q257" s="31"/>
       <c r="R257" s="31"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="33" t="s">
         <v>537</v>
       </c>
@@ -16072,7 +16074,7 @@
       <c r="Q258" s="31"/>
       <c r="R258" s="31"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="27" t="s">
         <v>60</v>
       </c>
@@ -16095,7 +16097,7 @@
       <c r="Q259" s="31"/>
       <c r="R259" s="31"/>
     </row>
-    <row r="260" spans="1:18" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="27" t="s">
         <v>539</v>
       </c>
@@ -16137,106 +16139,106 @@
       <c r="Q260" s="31"/>
       <c r="R260" s="31"/>
     </row>
-    <row r="261" spans="1:18" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="111" t="s">
+    <row r="261" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="113" t="s">
         <v>540</v>
       </c>
-      <c r="B261" s="111"/>
-      <c r="C261" s="111"/>
-      <c r="D261" s="111"/>
-      <c r="E261" s="111"/>
-      <c r="F261" s="111"/>
-      <c r="G261" s="111"/>
-      <c r="H261" s="111"/>
-      <c r="I261" s="111"/>
-      <c r="J261" s="111"/>
-      <c r="K261" s="111"/>
-      <c r="L261" s="111"/>
-      <c r="M261" s="111"/>
-      <c r="N261" s="111"/>
+      <c r="B261" s="113"/>
+      <c r="C261" s="113"/>
+      <c r="D261" s="113"/>
+      <c r="E261" s="113"/>
+      <c r="F261" s="113"/>
+      <c r="G261" s="113"/>
+      <c r="H261" s="113"/>
+      <c r="I261" s="113"/>
+      <c r="J261" s="113"/>
+      <c r="K261" s="113"/>
+      <c r="L261" s="113"/>
+      <c r="M261" s="113"/>
+      <c r="N261" s="113"/>
       <c r="P261" s="31"/>
       <c r="Q261" s="31"/>
       <c r="R261" s="31"/>
     </row>
-    <row r="262" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="112" t="s">
+    <row r="262" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="114" t="s">
         <v>541</v>
       </c>
-      <c r="B262" s="109"/>
-      <c r="C262" s="109"/>
-      <c r="D262" s="109"/>
-      <c r="E262" s="109"/>
-      <c r="F262" s="109"/>
-      <c r="G262" s="109"/>
-      <c r="H262" s="109"/>
-      <c r="I262" s="109"/>
-      <c r="J262" s="109"/>
-      <c r="K262" s="109"/>
-      <c r="L262" s="109"/>
-      <c r="M262" s="109"/>
-      <c r="N262" s="109"/>
+      <c r="B262" s="111"/>
+      <c r="C262" s="111"/>
+      <c r="D262" s="111"/>
+      <c r="E262" s="111"/>
+      <c r="F262" s="111"/>
+      <c r="G262" s="111"/>
+      <c r="H262" s="111"/>
+      <c r="I262" s="111"/>
+      <c r="J262" s="111"/>
+      <c r="K262" s="111"/>
+      <c r="L262" s="111"/>
+      <c r="M262" s="111"/>
+      <c r="N262" s="111"/>
       <c r="P262" s="31"/>
       <c r="Q262" s="31"/>
       <c r="R262" s="31"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A263" s="113" t="s">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A263" s="115" t="s">
         <v>542</v>
       </c>
-      <c r="B263" s="109"/>
-      <c r="C263" s="109"/>
-      <c r="D263" s="109"/>
-      <c r="E263" s="109"/>
-      <c r="F263" s="109"/>
-      <c r="G263" s="109"/>
-      <c r="H263" s="109"/>
-      <c r="I263" s="109"/>
-      <c r="J263" s="109"/>
-      <c r="K263" s="109"/>
-      <c r="L263" s="109"/>
-      <c r="M263" s="109"/>
-      <c r="N263" s="109"/>
+      <c r="B263" s="111"/>
+      <c r="C263" s="111"/>
+      <c r="D263" s="111"/>
+      <c r="E263" s="111"/>
+      <c r="F263" s="111"/>
+      <c r="G263" s="111"/>
+      <c r="H263" s="111"/>
+      <c r="I263" s="111"/>
+      <c r="J263" s="111"/>
+      <c r="K263" s="111"/>
+      <c r="L263" s="111"/>
+      <c r="M263" s="111"/>
+      <c r="N263" s="111"/>
       <c r="P263" s="31"/>
       <c r="Q263" s="31"/>
       <c r="R263" s="31"/>
     </row>
-    <row r="264" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="112" t="s">
+    <row r="264" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="114" t="s">
         <v>543</v>
       </c>
-      <c r="B264" s="109"/>
-      <c r="C264" s="109"/>
-      <c r="D264" s="109"/>
-      <c r="E264" s="109"/>
-      <c r="F264" s="109"/>
-      <c r="G264" s="109"/>
-      <c r="H264" s="109"/>
-      <c r="I264" s="109"/>
-      <c r="J264" s="109"/>
-      <c r="K264" s="109"/>
-      <c r="L264" s="109"/>
-      <c r="M264" s="109"/>
-      <c r="N264" s="109"/>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A265" s="113" t="s">
+      <c r="B264" s="111"/>
+      <c r="C264" s="111"/>
+      <c r="D264" s="111"/>
+      <c r="E264" s="111"/>
+      <c r="F264" s="111"/>
+      <c r="G264" s="111"/>
+      <c r="H264" s="111"/>
+      <c r="I264" s="111"/>
+      <c r="J264" s="111"/>
+      <c r="K264" s="111"/>
+      <c r="L264" s="111"/>
+      <c r="M264" s="111"/>
+      <c r="N264" s="111"/>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A265" s="115" t="s">
         <v>544</v>
       </c>
-      <c r="B265" s="109"/>
-      <c r="C265" s="109"/>
-      <c r="D265" s="109"/>
-      <c r="E265" s="109"/>
-      <c r="F265" s="109"/>
-      <c r="G265" s="109"/>
-      <c r="H265" s="109"/>
-      <c r="I265" s="109"/>
-      <c r="J265" s="109"/>
-      <c r="K265" s="109"/>
-      <c r="L265" s="109"/>
-      <c r="M265" s="109"/>
-      <c r="N265" s="109"/>
-    </row>
-    <row r="266" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B265" s="111"/>
+      <c r="C265" s="111"/>
+      <c r="D265" s="111"/>
+      <c r="E265" s="111"/>
+      <c r="F265" s="111"/>
+      <c r="G265" s="111"/>
+      <c r="H265" s="111"/>
+      <c r="I265" s="111"/>
+      <c r="J265" s="111"/>
+      <c r="K265" s="111"/>
+      <c r="L265" s="111"/>
+      <c r="M265" s="111"/>
+      <c r="N265" s="111"/>
+    </row>
+    <row r="266" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="40" t="s">
         <v>545</v>
       </c>
@@ -16254,69 +16256,69 @@
       <c r="M266" s="41"/>
       <c r="N266" s="41"/>
     </row>
-    <row r="267" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="110"/>
-      <c r="B267" s="109"/>
-      <c r="C267" s="109"/>
-      <c r="D267" s="109"/>
-      <c r="E267" s="109"/>
-      <c r="F267" s="109"/>
-      <c r="G267" s="109"/>
-      <c r="H267" s="109"/>
-      <c r="I267" s="109"/>
-      <c r="J267" s="109"/>
-      <c r="K267" s="109"/>
-      <c r="L267" s="109"/>
-      <c r="M267" s="109"/>
-      <c r="N267" s="109"/>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A268" s="108"/>
-      <c r="B268" s="109"/>
-      <c r="C268" s="109"/>
-      <c r="D268" s="109"/>
-      <c r="E268" s="109"/>
-      <c r="F268" s="109"/>
-      <c r="G268" s="109"/>
-      <c r="H268" s="109"/>
-      <c r="I268" s="109"/>
-      <c r="J268" s="109"/>
-      <c r="K268" s="109"/>
-      <c r="L268" s="109"/>
-      <c r="M268" s="109"/>
-      <c r="N268" s="109"/>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A269" s="110"/>
-      <c r="B269" s="109"/>
-      <c r="C269" s="109"/>
-      <c r="D269" s="109"/>
-      <c r="E269" s="109"/>
-      <c r="F269" s="109"/>
-      <c r="G269" s="109"/>
-      <c r="H269" s="109"/>
-      <c r="I269" s="109"/>
-      <c r="J269" s="109"/>
-      <c r="K269" s="109"/>
-      <c r="L269" s="109"/>
-      <c r="M269" s="109"/>
-      <c r="N269" s="109"/>
-    </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A270" s="110"/>
-      <c r="B270" s="109"/>
-      <c r="C270" s="109"/>
-      <c r="D270" s="109"/>
-      <c r="E270" s="109"/>
-      <c r="F270" s="109"/>
-      <c r="G270" s="109"/>
-      <c r="H270" s="109"/>
-      <c r="I270" s="109"/>
-      <c r="J270" s="109"/>
-      <c r="K270" s="109"/>
-      <c r="L270" s="109"/>
-      <c r="M270" s="109"/>
-      <c r="N270" s="109"/>
+    <row r="267" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="112"/>
+      <c r="B267" s="111"/>
+      <c r="C267" s="111"/>
+      <c r="D267" s="111"/>
+      <c r="E267" s="111"/>
+      <c r="F267" s="111"/>
+      <c r="G267" s="111"/>
+      <c r="H267" s="111"/>
+      <c r="I267" s="111"/>
+      <c r="J267" s="111"/>
+      <c r="K267" s="111"/>
+      <c r="L267" s="111"/>
+      <c r="M267" s="111"/>
+      <c r="N267" s="111"/>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A268" s="110"/>
+      <c r="B268" s="111"/>
+      <c r="C268" s="111"/>
+      <c r="D268" s="111"/>
+      <c r="E268" s="111"/>
+      <c r="F268" s="111"/>
+      <c r="G268" s="111"/>
+      <c r="H268" s="111"/>
+      <c r="I268" s="111"/>
+      <c r="J268" s="111"/>
+      <c r="K268" s="111"/>
+      <c r="L268" s="111"/>
+      <c r="M268" s="111"/>
+      <c r="N268" s="111"/>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A269" s="112"/>
+      <c r="B269" s="111"/>
+      <c r="C269" s="111"/>
+      <c r="D269" s="111"/>
+      <c r="E269" s="111"/>
+      <c r="F269" s="111"/>
+      <c r="G269" s="111"/>
+      <c r="H269" s="111"/>
+      <c r="I269" s="111"/>
+      <c r="J269" s="111"/>
+      <c r="K269" s="111"/>
+      <c r="L269" s="111"/>
+      <c r="M269" s="111"/>
+      <c r="N269" s="111"/>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A270" s="112"/>
+      <c r="B270" s="111"/>
+      <c r="C270" s="111"/>
+      <c r="D270" s="111"/>
+      <c r="E270" s="111"/>
+      <c r="F270" s="111"/>
+      <c r="G270" s="111"/>
+      <c r="H270" s="111"/>
+      <c r="I270" s="111"/>
+      <c r="J270" s="111"/>
+      <c r="K270" s="111"/>
+      <c r="L270" s="111"/>
+      <c r="M270" s="111"/>
+      <c r="N270" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -16359,17 +16361,17 @@
       <selection pane="bottomRight" activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.453125" style="42" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="42" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="42" customWidth="1"/>
     <col min="3" max="3" width="49" style="42" customWidth="1"/>
-    <col min="4" max="34" width="9.1796875" style="42"/>
-    <col min="35" max="35" width="9.1796875" style="42" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.1796875" style="42"/>
+    <col min="4" max="34" width="9.140625" style="42"/>
+    <col min="35" max="35" width="9.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="43" t="s">
         <v>546</v>
       </c>
@@ -16467,8 +16469,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="45" t="s">
         <v>547</v>
       </c>
@@ -16476,7 +16478,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="45" t="s">
         <v>549</v>
       </c>
@@ -16487,7 +16489,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="45" t="s">
         <v>552</v>
       </c>
@@ -16495,7 +16497,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="45" t="s">
         <v>554</v>
       </c>
@@ -16503,10 +16505,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:35" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:35" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:35" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:35" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>556</v>
       </c>
@@ -16518,13 +16520,13 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="43"/>
       <c r="AI11" s="48" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="43"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -16561,7 +16563,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="68" t="s">
         <v>651</v>
       </c>
@@ -16665,7 +16667,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>563</v>
       </c>
@@ -16770,7 +16772,7 @@
         <v>2.1465999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
         <v>565</v>
       </c>
@@ -16875,17 +16877,17 @@
         <v>8.652E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="51" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="51" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
         <v>569</v>
       </c>
@@ -16992,7 +16994,7 @@
         <v>1.6916E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
         <v>571</v>
       </c>
@@ -17099,7 +17101,7 @@
         <v>5.5269999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
         <v>573</v>
       </c>
@@ -17206,13 +17208,13 @@
         <v>1.6435000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:35" ht="12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="C26" s="51" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>576</v>
       </c>
@@ -17319,7 +17321,7 @@
         <v>1.9581000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>578</v>
       </c>
@@ -17426,7 +17428,7 @@
         <v>3.385E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>580</v>
       </c>
@@ -17533,7 +17535,7 @@
         <v>-1.907E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>582</v>
       </c>
@@ -17640,7 +17642,7 @@
         <v>6.5770000000000004E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
         <v>584</v>
       </c>
@@ -17747,7 +17749,7 @@
         <v>1.3207999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>586</v>
       </c>
@@ -17854,7 +17856,7 @@
         <v>4.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>588</v>
       </c>
@@ -17961,7 +17963,7 @@
         <v>-6.1159999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>590</v>
       </c>
@@ -18068,7 +18070,7 @@
         <v>1.8950999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>592</v>
       </c>
@@ -18173,7 +18175,7 @@
         <v>1.171E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
         <v>594</v>
       </c>
@@ -18278,7 +18280,7 @@
         <v>7.4669999999999997E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>596</v>
       </c>
@@ -18383,7 +18385,7 @@
         <v>1.3023E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
         <v>598</v>
       </c>
@@ -18488,7 +18490,7 @@
         <v>1.1967999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
         <v>600</v>
       </c>
@@ -18593,7 +18595,7 @@
         <v>8.4290000000000007E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>602</v>
       </c>
@@ -18698,7 +18700,7 @@
         <v>2.5649999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
         <v>604</v>
       </c>
@@ -18805,7 +18807,7 @@
         <v>6.2950000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
         <v>606</v>
       </c>
@@ -18910,7 +18912,7 @@
         <v>6.2789999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
         <v>608</v>
       </c>
@@ -19015,7 +19017,7 @@
         <v>6.5709999999999996E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
         <v>610</v>
       </c>
@@ -19122,7 +19124,7 @@
         <v>1.7694000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
         <v>612</v>
       </c>
@@ -19227,7 +19229,7 @@
         <v>1.3557E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="s">
         <v>614</v>
       </c>
@@ -19334,7 +19336,7 @@
         <v>1.5862999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="s">
         <v>616</v>
       </c>
@@ -19441,7 +19443,7 @@
         <v>1.43E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
         <v>618</v>
       </c>
@@ -19548,7 +19550,7 @@
         <v>1.2735E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
         <v>620</v>
       </c>
@@ -19653,7 +19655,7 @@
         <v>7.8239999999999994E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="46" t="s">
         <v>622</v>
       </c>
@@ -19760,7 +19762,7 @@
         <v>3.6419999999999998E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="46" t="s">
         <v>624</v>
       </c>
@@ -19867,7 +19869,7 @@
         <v>1.133E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="46" t="s">
         <v>626</v>
       </c>
@@ -19974,7 +19976,7 @@
         <v>1.1459E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="46" t="s">
         <v>628</v>
       </c>
@@ -20081,7 +20083,7 @@
         <v>1.2174000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
         <v>630</v>
       </c>
@@ -20188,7 +20190,7 @@
         <v>1.5675999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46" t="s">
         <v>632</v>
       </c>
@@ -20295,7 +20297,7 @@
         <v>2.3838999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
         <v>634</v>
       </c>
@@ -20402,7 +20404,7 @@
         <v>2.1440000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
         <v>636</v>
       </c>
@@ -20509,7 +20511,7 @@
         <v>1.5774E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
         <v>638</v>
       </c>
@@ -20616,7 +20618,7 @@
         <v>3.0849000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="46" t="s">
         <v>640</v>
       </c>
@@ -20721,606 +20723,606 @@
         <v>1.5282E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="115" t="s">
+    <row r="61" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="117" t="s">
         <v>642</v>
       </c>
-      <c r="D62" s="115"/>
-      <c r="E62" s="115"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="115"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="115"/>
-      <c r="L62" s="115"/>
-      <c r="M62" s="115"/>
-      <c r="N62" s="115"/>
-      <c r="O62" s="115"/>
-      <c r="P62" s="115"/>
-      <c r="Q62" s="115"/>
-      <c r="R62" s="115"/>
-      <c r="S62" s="115"/>
-      <c r="T62" s="115"/>
-      <c r="U62" s="115"/>
-      <c r="V62" s="115"/>
-      <c r="W62" s="115"/>
-      <c r="X62" s="115"/>
-      <c r="Y62" s="115"/>
-      <c r="Z62" s="115"/>
-      <c r="AA62" s="115"/>
-      <c r="AB62" s="115"/>
-      <c r="AC62" s="115"/>
-      <c r="AD62" s="115"/>
-      <c r="AE62" s="115"/>
-      <c r="AF62" s="115"/>
-      <c r="AG62" s="115"/>
-      <c r="AH62" s="115"/>
-      <c r="AI62" s="115"/>
-    </row>
-    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="117"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="117"/>
+      <c r="I62" s="117"/>
+      <c r="J62" s="117"/>
+      <c r="K62" s="117"/>
+      <c r="L62" s="117"/>
+      <c r="M62" s="117"/>
+      <c r="N62" s="117"/>
+      <c r="O62" s="117"/>
+      <c r="P62" s="117"/>
+      <c r="Q62" s="117"/>
+      <c r="R62" s="117"/>
+      <c r="S62" s="117"/>
+      <c r="T62" s="117"/>
+      <c r="U62" s="117"/>
+      <c r="V62" s="117"/>
+      <c r="W62" s="117"/>
+      <c r="X62" s="117"/>
+      <c r="Y62" s="117"/>
+      <c r="Z62" s="117"/>
+      <c r="AA62" s="117"/>
+      <c r="AB62" s="117"/>
+      <c r="AC62" s="117"/>
+      <c r="AD62" s="117"/>
+      <c r="AE62" s="117"/>
+      <c r="AF62" s="117"/>
+      <c r="AG62" s="117"/>
+      <c r="AH62" s="117"/>
+      <c r="AI62" s="117"/>
+    </row>
+    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="57" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="57" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="66" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="3:35" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="116"/>
-      <c r="D147" s="116"/>
-      <c r="E147" s="116"/>
-      <c r="F147" s="116"/>
-      <c r="G147" s="116"/>
-      <c r="H147" s="116"/>
-      <c r="I147" s="116"/>
-      <c r="J147" s="116"/>
-      <c r="K147" s="116"/>
-      <c r="L147" s="116"/>
-      <c r="M147" s="116"/>
-      <c r="N147" s="116"/>
-      <c r="O147" s="116"/>
-      <c r="P147" s="116"/>
-      <c r="Q147" s="116"/>
-      <c r="R147" s="116"/>
-      <c r="S147" s="116"/>
-      <c r="T147" s="116"/>
-      <c r="U147" s="116"/>
-      <c r="V147" s="116"/>
-      <c r="W147" s="116"/>
-      <c r="X147" s="116"/>
-      <c r="Y147" s="116"/>
-      <c r="Z147" s="116"/>
-      <c r="AA147" s="116"/>
-      <c r="AB147" s="116"/>
-      <c r="AC147" s="116"/>
-      <c r="AD147" s="116"/>
-      <c r="AE147" s="116"/>
-      <c r="AF147" s="116"/>
-      <c r="AG147" s="116"/>
-      <c r="AH147" s="116"/>
-      <c r="AI147" s="116"/>
-    </row>
-    <row r="148" spans="3:35" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="3:35" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="3:35" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="3:35" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C283" s="114"/>
-      <c r="D283" s="114"/>
-      <c r="E283" s="114"/>
-      <c r="F283" s="114"/>
-      <c r="G283" s="114"/>
-      <c r="H283" s="114"/>
-      <c r="I283" s="114"/>
-      <c r="J283" s="114"/>
-      <c r="K283" s="114"/>
-      <c r="L283" s="114"/>
-      <c r="M283" s="114"/>
-      <c r="N283" s="114"/>
-      <c r="O283" s="114"/>
-      <c r="P283" s="114"/>
-      <c r="Q283" s="114"/>
-      <c r="R283" s="114"/>
-      <c r="S283" s="114"/>
-      <c r="T283" s="114"/>
-      <c r="U283" s="114"/>
-      <c r="V283" s="114"/>
-      <c r="W283" s="114"/>
-      <c r="X283" s="114"/>
-      <c r="Y283" s="114"/>
-      <c r="Z283" s="114"/>
-      <c r="AA283" s="114"/>
-      <c r="AB283" s="114"/>
-      <c r="AC283" s="114"/>
-      <c r="AD283" s="114"/>
-      <c r="AE283" s="114"/>
-      <c r="AF283" s="114"/>
-      <c r="AG283" s="114"/>
-      <c r="AH283" s="114"/>
-      <c r="AI283" s="114"/>
-    </row>
-    <row r="368" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C368" s="114"/>
-      <c r="D368" s="114"/>
-      <c r="E368" s="114"/>
-      <c r="F368" s="114"/>
-      <c r="G368" s="114"/>
-      <c r="H368" s="114"/>
-      <c r="I368" s="114"/>
-      <c r="J368" s="114"/>
-      <c r="K368" s="114"/>
-      <c r="L368" s="114"/>
-      <c r="M368" s="114"/>
-      <c r="N368" s="114"/>
-      <c r="O368" s="114"/>
-      <c r="P368" s="114"/>
-      <c r="Q368" s="114"/>
-      <c r="R368" s="114"/>
-      <c r="S368" s="114"/>
-      <c r="T368" s="114"/>
-      <c r="U368" s="114"/>
-      <c r="V368" s="114"/>
-      <c r="W368" s="114"/>
-      <c r="X368" s="114"/>
-      <c r="Y368" s="114"/>
-      <c r="Z368" s="114"/>
-      <c r="AA368" s="114"/>
-      <c r="AB368" s="114"/>
-      <c r="AC368" s="114"/>
-      <c r="AD368" s="114"/>
-      <c r="AE368" s="114"/>
-      <c r="AF368" s="114"/>
-      <c r="AG368" s="114"/>
-      <c r="AH368" s="114"/>
-      <c r="AI368" s="114"/>
-    </row>
-    <row r="500" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C500" s="117"/>
-      <c r="D500" s="114"/>
-      <c r="E500" s="114"/>
-      <c r="F500" s="114"/>
-      <c r="G500" s="114"/>
-      <c r="H500" s="114"/>
-      <c r="I500" s="114"/>
-      <c r="J500" s="114"/>
-      <c r="K500" s="114"/>
-      <c r="L500" s="114"/>
-      <c r="M500" s="114"/>
-      <c r="N500" s="114"/>
-      <c r="O500" s="114"/>
-      <c r="P500" s="114"/>
-      <c r="Q500" s="114"/>
-      <c r="R500" s="114"/>
-      <c r="S500" s="114"/>
-      <c r="T500" s="114"/>
-      <c r="U500" s="114"/>
-      <c r="V500" s="114"/>
-      <c r="W500" s="114"/>
-      <c r="X500" s="114"/>
-      <c r="Y500" s="114"/>
-      <c r="Z500" s="114"/>
-      <c r="AA500" s="114"/>
-      <c r="AB500" s="114"/>
-      <c r="AC500" s="114"/>
-      <c r="AD500" s="114"/>
-      <c r="AE500" s="114"/>
-      <c r="AF500" s="114"/>
-      <c r="AG500" s="114"/>
-      <c r="AH500" s="114"/>
-    </row>
-    <row r="551" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C551" s="114"/>
-      <c r="D551" s="114"/>
-      <c r="E551" s="114"/>
-      <c r="F551" s="114"/>
-      <c r="G551" s="114"/>
-      <c r="H551" s="114"/>
-      <c r="I551" s="114"/>
-      <c r="J551" s="114"/>
-      <c r="K551" s="114"/>
-      <c r="L551" s="114"/>
-      <c r="M551" s="114"/>
-      <c r="N551" s="114"/>
-      <c r="O551" s="114"/>
-      <c r="P551" s="114"/>
-      <c r="Q551" s="114"/>
-      <c r="R551" s="114"/>
-      <c r="S551" s="114"/>
-      <c r="T551" s="114"/>
-      <c r="U551" s="114"/>
-      <c r="V551" s="114"/>
-      <c r="W551" s="114"/>
-      <c r="X551" s="114"/>
-      <c r="Y551" s="114"/>
-      <c r="Z551" s="114"/>
-      <c r="AA551" s="114"/>
-      <c r="AB551" s="114"/>
-      <c r="AC551" s="114"/>
-      <c r="AD551" s="114"/>
-      <c r="AE551" s="114"/>
-      <c r="AF551" s="114"/>
-      <c r="AG551" s="114"/>
-      <c r="AH551" s="114"/>
-      <c r="AI551" s="114"/>
-    </row>
-    <row r="643" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C643" s="114"/>
-      <c r="D643" s="114"/>
-      <c r="E643" s="114"/>
-      <c r="F643" s="114"/>
-      <c r="G643" s="114"/>
-      <c r="H643" s="114"/>
-      <c r="I643" s="114"/>
-      <c r="J643" s="114"/>
-      <c r="K643" s="114"/>
-      <c r="L643" s="114"/>
-      <c r="M643" s="114"/>
-      <c r="N643" s="114"/>
-      <c r="O643" s="114"/>
-      <c r="P643" s="114"/>
-      <c r="Q643" s="114"/>
-      <c r="R643" s="114"/>
-      <c r="S643" s="114"/>
-      <c r="T643" s="114"/>
-      <c r="U643" s="114"/>
-      <c r="V643" s="114"/>
-      <c r="W643" s="114"/>
-      <c r="X643" s="114"/>
-      <c r="Y643" s="114"/>
-      <c r="Z643" s="114"/>
-      <c r="AA643" s="114"/>
-      <c r="AB643" s="114"/>
-      <c r="AC643" s="114"/>
-      <c r="AD643" s="114"/>
-      <c r="AE643" s="114"/>
-      <c r="AF643" s="114"/>
-      <c r="AG643" s="114"/>
-      <c r="AH643" s="114"/>
-      <c r="AI643" s="114"/>
-    </row>
-    <row r="719" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C719" s="114"/>
-      <c r="D719" s="114"/>
-      <c r="E719" s="114"/>
-      <c r="F719" s="114"/>
-      <c r="G719" s="114"/>
-      <c r="H719" s="114"/>
-      <c r="I719" s="114"/>
-      <c r="J719" s="114"/>
-      <c r="K719" s="114"/>
-      <c r="L719" s="114"/>
-      <c r="M719" s="114"/>
-      <c r="N719" s="114"/>
-      <c r="O719" s="114"/>
-      <c r="P719" s="114"/>
-      <c r="Q719" s="114"/>
-      <c r="R719" s="114"/>
-      <c r="S719" s="114"/>
-      <c r="T719" s="114"/>
-      <c r="U719" s="114"/>
-      <c r="V719" s="114"/>
-      <c r="W719" s="114"/>
-      <c r="X719" s="114"/>
-      <c r="Y719" s="114"/>
-      <c r="Z719" s="114"/>
-      <c r="AA719" s="114"/>
-      <c r="AB719" s="114"/>
-      <c r="AC719" s="114"/>
-      <c r="AD719" s="114"/>
-      <c r="AE719" s="114"/>
-      <c r="AF719" s="114"/>
-      <c r="AG719" s="114"/>
-      <c r="AH719" s="114"/>
-      <c r="AI719" s="114"/>
-    </row>
-    <row r="810" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C810" s="114"/>
-      <c r="D810" s="114"/>
-      <c r="E810" s="114"/>
-      <c r="F810" s="114"/>
-      <c r="G810" s="114"/>
-      <c r="H810" s="114"/>
-      <c r="I810" s="114"/>
-      <c r="J810" s="114"/>
-      <c r="K810" s="114"/>
-      <c r="L810" s="114"/>
-      <c r="M810" s="114"/>
-      <c r="N810" s="114"/>
-      <c r="O810" s="114"/>
-      <c r="P810" s="114"/>
-      <c r="Q810" s="114"/>
-      <c r="R810" s="114"/>
-      <c r="S810" s="114"/>
-      <c r="T810" s="114"/>
-      <c r="U810" s="114"/>
-      <c r="V810" s="114"/>
-      <c r="W810" s="114"/>
-      <c r="X810" s="114"/>
-      <c r="Y810" s="114"/>
-      <c r="Z810" s="114"/>
-      <c r="AA810" s="114"/>
-      <c r="AB810" s="114"/>
-      <c r="AC810" s="114"/>
-      <c r="AD810" s="114"/>
-      <c r="AE810" s="114"/>
-      <c r="AF810" s="114"/>
-      <c r="AG810" s="114"/>
-      <c r="AH810" s="114"/>
-      <c r="AI810" s="114"/>
-    </row>
-    <row r="888" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C888" s="114"/>
-      <c r="D888" s="114"/>
-      <c r="E888" s="114"/>
-      <c r="F888" s="114"/>
-      <c r="G888" s="114"/>
-      <c r="H888" s="114"/>
-      <c r="I888" s="114"/>
-      <c r="J888" s="114"/>
-      <c r="K888" s="114"/>
-      <c r="L888" s="114"/>
-      <c r="M888" s="114"/>
-      <c r="N888" s="114"/>
-      <c r="O888" s="114"/>
-      <c r="P888" s="114"/>
-      <c r="Q888" s="114"/>
-      <c r="R888" s="114"/>
-      <c r="S888" s="114"/>
-      <c r="T888" s="114"/>
-      <c r="U888" s="114"/>
-      <c r="V888" s="114"/>
-      <c r="W888" s="114"/>
-      <c r="X888" s="114"/>
-      <c r="Y888" s="114"/>
-      <c r="Z888" s="114"/>
-      <c r="AA888" s="114"/>
-      <c r="AB888" s="114"/>
-      <c r="AC888" s="114"/>
-      <c r="AD888" s="114"/>
-      <c r="AE888" s="114"/>
-      <c r="AF888" s="114"/>
-      <c r="AG888" s="114"/>
-      <c r="AH888" s="114"/>
-      <c r="AI888" s="114"/>
-    </row>
-    <row r="973" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C973" s="114"/>
-      <c r="D973" s="114"/>
-      <c r="E973" s="114"/>
-      <c r="F973" s="114"/>
-      <c r="G973" s="114"/>
-      <c r="H973" s="114"/>
-      <c r="I973" s="114"/>
-      <c r="J973" s="114"/>
-      <c r="K973" s="114"/>
-      <c r="L973" s="114"/>
-      <c r="M973" s="114"/>
-      <c r="N973" s="114"/>
-      <c r="O973" s="114"/>
-      <c r="P973" s="114"/>
-      <c r="Q973" s="114"/>
-      <c r="R973" s="114"/>
-      <c r="S973" s="114"/>
-      <c r="T973" s="114"/>
-      <c r="U973" s="114"/>
-      <c r="V973" s="114"/>
-      <c r="W973" s="114"/>
-      <c r="X973" s="114"/>
-      <c r="Y973" s="114"/>
-      <c r="Z973" s="114"/>
-      <c r="AA973" s="114"/>
-      <c r="AB973" s="114"/>
-      <c r="AC973" s="114"/>
-      <c r="AD973" s="114"/>
-      <c r="AE973" s="114"/>
-      <c r="AF973" s="114"/>
-      <c r="AG973" s="114"/>
-      <c r="AH973" s="114"/>
-      <c r="AI973" s="114"/>
-    </row>
-    <row r="1048" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1048" s="114"/>
-      <c r="D1048" s="114"/>
-      <c r="E1048" s="114"/>
-      <c r="F1048" s="114"/>
-      <c r="G1048" s="114"/>
-      <c r="H1048" s="114"/>
-      <c r="I1048" s="114"/>
-      <c r="J1048" s="114"/>
-      <c r="K1048" s="114"/>
-      <c r="L1048" s="114"/>
-      <c r="M1048" s="114"/>
-      <c r="N1048" s="114"/>
-      <c r="O1048" s="114"/>
-      <c r="P1048" s="114"/>
-      <c r="Q1048" s="114"/>
-      <c r="R1048" s="114"/>
-      <c r="S1048" s="114"/>
-      <c r="T1048" s="114"/>
-      <c r="U1048" s="114"/>
-      <c r="V1048" s="114"/>
-      <c r="W1048" s="114"/>
-      <c r="X1048" s="114"/>
-      <c r="Y1048" s="114"/>
-      <c r="Z1048" s="114"/>
-      <c r="AA1048" s="114"/>
-      <c r="AB1048" s="114"/>
-      <c r="AC1048" s="114"/>
-      <c r="AD1048" s="114"/>
-      <c r="AE1048" s="114"/>
-      <c r="AF1048" s="114"/>
-      <c r="AG1048" s="114"/>
-      <c r="AH1048" s="114"/>
-      <c r="AI1048" s="114"/>
-    </row>
-    <row r="1120" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1120" s="114"/>
-      <c r="D1120" s="114"/>
-      <c r="E1120" s="114"/>
-      <c r="F1120" s="114"/>
-      <c r="G1120" s="114"/>
-      <c r="H1120" s="114"/>
-      <c r="I1120" s="114"/>
-      <c r="J1120" s="114"/>
-      <c r="K1120" s="114"/>
-      <c r="L1120" s="114"/>
-      <c r="M1120" s="114"/>
-      <c r="N1120" s="114"/>
-      <c r="O1120" s="114"/>
-      <c r="P1120" s="114"/>
-      <c r="Q1120" s="114"/>
-      <c r="R1120" s="114"/>
-      <c r="S1120" s="114"/>
-      <c r="T1120" s="114"/>
-      <c r="U1120" s="114"/>
-      <c r="V1120" s="114"/>
-      <c r="W1120" s="114"/>
-      <c r="X1120" s="114"/>
-      <c r="Y1120" s="114"/>
-      <c r="Z1120" s="114"/>
-      <c r="AA1120" s="114"/>
-      <c r="AB1120" s="114"/>
-      <c r="AC1120" s="114"/>
-      <c r="AD1120" s="114"/>
-      <c r="AE1120" s="114"/>
-      <c r="AF1120" s="114"/>
-      <c r="AG1120" s="114"/>
-      <c r="AH1120" s="114"/>
-      <c r="AI1120" s="114"/>
-    </row>
-    <row r="1254" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1254" s="114"/>
-      <c r="D1254" s="114"/>
-      <c r="E1254" s="114"/>
-      <c r="F1254" s="114"/>
-      <c r="G1254" s="114"/>
-      <c r="H1254" s="114"/>
-      <c r="I1254" s="114"/>
-      <c r="J1254" s="114"/>
-      <c r="K1254" s="114"/>
-      <c r="L1254" s="114"/>
-      <c r="M1254" s="114"/>
-      <c r="N1254" s="114"/>
-      <c r="O1254" s="114"/>
-      <c r="P1254" s="114"/>
-      <c r="Q1254" s="114"/>
-      <c r="R1254" s="114"/>
-      <c r="S1254" s="114"/>
-      <c r="T1254" s="114"/>
-      <c r="U1254" s="114"/>
-      <c r="V1254" s="114"/>
-      <c r="W1254" s="114"/>
-      <c r="X1254" s="114"/>
-      <c r="Y1254" s="114"/>
-      <c r="Z1254" s="114"/>
-      <c r="AA1254" s="114"/>
-      <c r="AB1254" s="114"/>
-      <c r="AC1254" s="114"/>
-      <c r="AD1254" s="114"/>
-      <c r="AE1254" s="114"/>
-      <c r="AF1254" s="114"/>
-      <c r="AG1254" s="114"/>
-      <c r="AH1254" s="114"/>
-      <c r="AI1254" s="114"/>
-    </row>
-    <row r="1372" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1372" s="114"/>
-      <c r="D1372" s="114"/>
-      <c r="E1372" s="114"/>
-      <c r="F1372" s="114"/>
-      <c r="G1372" s="114"/>
-      <c r="H1372" s="114"/>
-      <c r="I1372" s="114"/>
-      <c r="J1372" s="114"/>
-      <c r="K1372" s="114"/>
-      <c r="L1372" s="114"/>
-      <c r="M1372" s="114"/>
-      <c r="N1372" s="114"/>
-      <c r="O1372" s="114"/>
-      <c r="P1372" s="114"/>
-      <c r="Q1372" s="114"/>
-      <c r="R1372" s="114"/>
-      <c r="S1372" s="114"/>
-      <c r="T1372" s="114"/>
-      <c r="U1372" s="114"/>
-      <c r="V1372" s="114"/>
-      <c r="W1372" s="114"/>
-      <c r="X1372" s="114"/>
-      <c r="Y1372" s="114"/>
-      <c r="Z1372" s="114"/>
-      <c r="AA1372" s="114"/>
-      <c r="AB1372" s="114"/>
-      <c r="AC1372" s="114"/>
-      <c r="AD1372" s="114"/>
-      <c r="AE1372" s="114"/>
-      <c r="AF1372" s="114"/>
-      <c r="AG1372" s="114"/>
-      <c r="AH1372" s="114"/>
-      <c r="AI1372" s="114"/>
-    </row>
-    <row r="1476" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1476" s="114"/>
-      <c r="D1476" s="114"/>
-      <c r="E1476" s="114"/>
-      <c r="F1476" s="114"/>
-      <c r="G1476" s="114"/>
-      <c r="H1476" s="114"/>
-      <c r="I1476" s="114"/>
-      <c r="J1476" s="114"/>
-      <c r="K1476" s="114"/>
-      <c r="L1476" s="114"/>
-      <c r="M1476" s="114"/>
-      <c r="N1476" s="114"/>
-      <c r="O1476" s="114"/>
-      <c r="P1476" s="114"/>
-      <c r="Q1476" s="114"/>
-      <c r="R1476" s="114"/>
-      <c r="S1476" s="114"/>
-      <c r="T1476" s="114"/>
-      <c r="U1476" s="114"/>
-      <c r="V1476" s="114"/>
-      <c r="W1476" s="114"/>
-      <c r="X1476" s="114"/>
-      <c r="Y1476" s="114"/>
-      <c r="Z1476" s="114"/>
-      <c r="AA1476" s="114"/>
-      <c r="AB1476" s="114"/>
-      <c r="AC1476" s="114"/>
-      <c r="AD1476" s="114"/>
-      <c r="AE1476" s="114"/>
-      <c r="AF1476" s="114"/>
-      <c r="AG1476" s="114"/>
-      <c r="AH1476" s="114"/>
-      <c r="AI1476" s="114"/>
+    <row r="66" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="3:35" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="118"/>
+      <c r="D147" s="118"/>
+      <c r="E147" s="118"/>
+      <c r="F147" s="118"/>
+      <c r="G147" s="118"/>
+      <c r="H147" s="118"/>
+      <c r="I147" s="118"/>
+      <c r="J147" s="118"/>
+      <c r="K147" s="118"/>
+      <c r="L147" s="118"/>
+      <c r="M147" s="118"/>
+      <c r="N147" s="118"/>
+      <c r="O147" s="118"/>
+      <c r="P147" s="118"/>
+      <c r="Q147" s="118"/>
+      <c r="R147" s="118"/>
+      <c r="S147" s="118"/>
+      <c r="T147" s="118"/>
+      <c r="U147" s="118"/>
+      <c r="V147" s="118"/>
+      <c r="W147" s="118"/>
+      <c r="X147" s="118"/>
+      <c r="Y147" s="118"/>
+      <c r="Z147" s="118"/>
+      <c r="AA147" s="118"/>
+      <c r="AB147" s="118"/>
+      <c r="AC147" s="118"/>
+      <c r="AD147" s="118"/>
+      <c r="AE147" s="118"/>
+      <c r="AF147" s="118"/>
+      <c r="AG147" s="118"/>
+      <c r="AH147" s="118"/>
+      <c r="AI147" s="118"/>
+    </row>
+    <row r="148" spans="3:35" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="3:35" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="3:35" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="3:35" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="3:35" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C283" s="116"/>
+      <c r="D283" s="116"/>
+      <c r="E283" s="116"/>
+      <c r="F283" s="116"/>
+      <c r="G283" s="116"/>
+      <c r="H283" s="116"/>
+      <c r="I283" s="116"/>
+      <c r="J283" s="116"/>
+      <c r="K283" s="116"/>
+      <c r="L283" s="116"/>
+      <c r="M283" s="116"/>
+      <c r="N283" s="116"/>
+      <c r="O283" s="116"/>
+      <c r="P283" s="116"/>
+      <c r="Q283" s="116"/>
+      <c r="R283" s="116"/>
+      <c r="S283" s="116"/>
+      <c r="T283" s="116"/>
+      <c r="U283" s="116"/>
+      <c r="V283" s="116"/>
+      <c r="W283" s="116"/>
+      <c r="X283" s="116"/>
+      <c r="Y283" s="116"/>
+      <c r="Z283" s="116"/>
+      <c r="AA283" s="116"/>
+      <c r="AB283" s="116"/>
+      <c r="AC283" s="116"/>
+      <c r="AD283" s="116"/>
+      <c r="AE283" s="116"/>
+      <c r="AF283" s="116"/>
+      <c r="AG283" s="116"/>
+      <c r="AH283" s="116"/>
+      <c r="AI283" s="116"/>
+    </row>
+    <row r="368" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C368" s="116"/>
+      <c r="D368" s="116"/>
+      <c r="E368" s="116"/>
+      <c r="F368" s="116"/>
+      <c r="G368" s="116"/>
+      <c r="H368" s="116"/>
+      <c r="I368" s="116"/>
+      <c r="J368" s="116"/>
+      <c r="K368" s="116"/>
+      <c r="L368" s="116"/>
+      <c r="M368" s="116"/>
+      <c r="N368" s="116"/>
+      <c r="O368" s="116"/>
+      <c r="P368" s="116"/>
+      <c r="Q368" s="116"/>
+      <c r="R368" s="116"/>
+      <c r="S368" s="116"/>
+      <c r="T368" s="116"/>
+      <c r="U368" s="116"/>
+      <c r="V368" s="116"/>
+      <c r="W368" s="116"/>
+      <c r="X368" s="116"/>
+      <c r="Y368" s="116"/>
+      <c r="Z368" s="116"/>
+      <c r="AA368" s="116"/>
+      <c r="AB368" s="116"/>
+      <c r="AC368" s="116"/>
+      <c r="AD368" s="116"/>
+      <c r="AE368" s="116"/>
+      <c r="AF368" s="116"/>
+      <c r="AG368" s="116"/>
+      <c r="AH368" s="116"/>
+      <c r="AI368" s="116"/>
+    </row>
+    <row r="500" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C500" s="119"/>
+      <c r="D500" s="116"/>
+      <c r="E500" s="116"/>
+      <c r="F500" s="116"/>
+      <c r="G500" s="116"/>
+      <c r="H500" s="116"/>
+      <c r="I500" s="116"/>
+      <c r="J500" s="116"/>
+      <c r="K500" s="116"/>
+      <c r="L500" s="116"/>
+      <c r="M500" s="116"/>
+      <c r="N500" s="116"/>
+      <c r="O500" s="116"/>
+      <c r="P500" s="116"/>
+      <c r="Q500" s="116"/>
+      <c r="R500" s="116"/>
+      <c r="S500" s="116"/>
+      <c r="T500" s="116"/>
+      <c r="U500" s="116"/>
+      <c r="V500" s="116"/>
+      <c r="W500" s="116"/>
+      <c r="X500" s="116"/>
+      <c r="Y500" s="116"/>
+      <c r="Z500" s="116"/>
+      <c r="AA500" s="116"/>
+      <c r="AB500" s="116"/>
+      <c r="AC500" s="116"/>
+      <c r="AD500" s="116"/>
+      <c r="AE500" s="116"/>
+      <c r="AF500" s="116"/>
+      <c r="AG500" s="116"/>
+      <c r="AH500" s="116"/>
+    </row>
+    <row r="551" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C551" s="116"/>
+      <c r="D551" s="116"/>
+      <c r="E551" s="116"/>
+      <c r="F551" s="116"/>
+      <c r="G551" s="116"/>
+      <c r="H551" s="116"/>
+      <c r="I551" s="116"/>
+      <c r="J551" s="116"/>
+      <c r="K551" s="116"/>
+      <c r="L551" s="116"/>
+      <c r="M551" s="116"/>
+      <c r="N551" s="116"/>
+      <c r="O551" s="116"/>
+      <c r="P551" s="116"/>
+      <c r="Q551" s="116"/>
+      <c r="R551" s="116"/>
+      <c r="S551" s="116"/>
+      <c r="T551" s="116"/>
+      <c r="U551" s="116"/>
+      <c r="V551" s="116"/>
+      <c r="W551" s="116"/>
+      <c r="X551" s="116"/>
+      <c r="Y551" s="116"/>
+      <c r="Z551" s="116"/>
+      <c r="AA551" s="116"/>
+      <c r="AB551" s="116"/>
+      <c r="AC551" s="116"/>
+      <c r="AD551" s="116"/>
+      <c r="AE551" s="116"/>
+      <c r="AF551" s="116"/>
+      <c r="AG551" s="116"/>
+      <c r="AH551" s="116"/>
+      <c r="AI551" s="116"/>
+    </row>
+    <row r="643" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C643" s="116"/>
+      <c r="D643" s="116"/>
+      <c r="E643" s="116"/>
+      <c r="F643" s="116"/>
+      <c r="G643" s="116"/>
+      <c r="H643" s="116"/>
+      <c r="I643" s="116"/>
+      <c r="J643" s="116"/>
+      <c r="K643" s="116"/>
+      <c r="L643" s="116"/>
+      <c r="M643" s="116"/>
+      <c r="N643" s="116"/>
+      <c r="O643" s="116"/>
+      <c r="P643" s="116"/>
+      <c r="Q643" s="116"/>
+      <c r="R643" s="116"/>
+      <c r="S643" s="116"/>
+      <c r="T643" s="116"/>
+      <c r="U643" s="116"/>
+      <c r="V643" s="116"/>
+      <c r="W643" s="116"/>
+      <c r="X643" s="116"/>
+      <c r="Y643" s="116"/>
+      <c r="Z643" s="116"/>
+      <c r="AA643" s="116"/>
+      <c r="AB643" s="116"/>
+      <c r="AC643" s="116"/>
+      <c r="AD643" s="116"/>
+      <c r="AE643" s="116"/>
+      <c r="AF643" s="116"/>
+      <c r="AG643" s="116"/>
+      <c r="AH643" s="116"/>
+      <c r="AI643" s="116"/>
+    </row>
+    <row r="719" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C719" s="116"/>
+      <c r="D719" s="116"/>
+      <c r="E719" s="116"/>
+      <c r="F719" s="116"/>
+      <c r="G719" s="116"/>
+      <c r="H719" s="116"/>
+      <c r="I719" s="116"/>
+      <c r="J719" s="116"/>
+      <c r="K719" s="116"/>
+      <c r="L719" s="116"/>
+      <c r="M719" s="116"/>
+      <c r="N719" s="116"/>
+      <c r="O719" s="116"/>
+      <c r="P719" s="116"/>
+      <c r="Q719" s="116"/>
+      <c r="R719" s="116"/>
+      <c r="S719" s="116"/>
+      <c r="T719" s="116"/>
+      <c r="U719" s="116"/>
+      <c r="V719" s="116"/>
+      <c r="W719" s="116"/>
+      <c r="X719" s="116"/>
+      <c r="Y719" s="116"/>
+      <c r="Z719" s="116"/>
+      <c r="AA719" s="116"/>
+      <c r="AB719" s="116"/>
+      <c r="AC719" s="116"/>
+      <c r="AD719" s="116"/>
+      <c r="AE719" s="116"/>
+      <c r="AF719" s="116"/>
+      <c r="AG719" s="116"/>
+      <c r="AH719" s="116"/>
+      <c r="AI719" s="116"/>
+    </row>
+    <row r="810" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C810" s="116"/>
+      <c r="D810" s="116"/>
+      <c r="E810" s="116"/>
+      <c r="F810" s="116"/>
+      <c r="G810" s="116"/>
+      <c r="H810" s="116"/>
+      <c r="I810" s="116"/>
+      <c r="J810" s="116"/>
+      <c r="K810" s="116"/>
+      <c r="L810" s="116"/>
+      <c r="M810" s="116"/>
+      <c r="N810" s="116"/>
+      <c r="O810" s="116"/>
+      <c r="P810" s="116"/>
+      <c r="Q810" s="116"/>
+      <c r="R810" s="116"/>
+      <c r="S810" s="116"/>
+      <c r="T810" s="116"/>
+      <c r="U810" s="116"/>
+      <c r="V810" s="116"/>
+      <c r="W810" s="116"/>
+      <c r="X810" s="116"/>
+      <c r="Y810" s="116"/>
+      <c r="Z810" s="116"/>
+      <c r="AA810" s="116"/>
+      <c r="AB810" s="116"/>
+      <c r="AC810" s="116"/>
+      <c r="AD810" s="116"/>
+      <c r="AE810" s="116"/>
+      <c r="AF810" s="116"/>
+      <c r="AG810" s="116"/>
+      <c r="AH810" s="116"/>
+      <c r="AI810" s="116"/>
+    </row>
+    <row r="888" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C888" s="116"/>
+      <c r="D888" s="116"/>
+      <c r="E888" s="116"/>
+      <c r="F888" s="116"/>
+      <c r="G888" s="116"/>
+      <c r="H888" s="116"/>
+      <c r="I888" s="116"/>
+      <c r="J888" s="116"/>
+      <c r="K888" s="116"/>
+      <c r="L888" s="116"/>
+      <c r="M888" s="116"/>
+      <c r="N888" s="116"/>
+      <c r="O888" s="116"/>
+      <c r="P888" s="116"/>
+      <c r="Q888" s="116"/>
+      <c r="R888" s="116"/>
+      <c r="S888" s="116"/>
+      <c r="T888" s="116"/>
+      <c r="U888" s="116"/>
+      <c r="V888" s="116"/>
+      <c r="W888" s="116"/>
+      <c r="X888" s="116"/>
+      <c r="Y888" s="116"/>
+      <c r="Z888" s="116"/>
+      <c r="AA888" s="116"/>
+      <c r="AB888" s="116"/>
+      <c r="AC888" s="116"/>
+      <c r="AD888" s="116"/>
+      <c r="AE888" s="116"/>
+      <c r="AF888" s="116"/>
+      <c r="AG888" s="116"/>
+      <c r="AH888" s="116"/>
+      <c r="AI888" s="116"/>
+    </row>
+    <row r="973" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C973" s="116"/>
+      <c r="D973" s="116"/>
+      <c r="E973" s="116"/>
+      <c r="F973" s="116"/>
+      <c r="G973" s="116"/>
+      <c r="H973" s="116"/>
+      <c r="I973" s="116"/>
+      <c r="J973" s="116"/>
+      <c r="K973" s="116"/>
+      <c r="L973" s="116"/>
+      <c r="M973" s="116"/>
+      <c r="N973" s="116"/>
+      <c r="O973" s="116"/>
+      <c r="P973" s="116"/>
+      <c r="Q973" s="116"/>
+      <c r="R973" s="116"/>
+      <c r="S973" s="116"/>
+      <c r="T973" s="116"/>
+      <c r="U973" s="116"/>
+      <c r="V973" s="116"/>
+      <c r="W973" s="116"/>
+      <c r="X973" s="116"/>
+      <c r="Y973" s="116"/>
+      <c r="Z973" s="116"/>
+      <c r="AA973" s="116"/>
+      <c r="AB973" s="116"/>
+      <c r="AC973" s="116"/>
+      <c r="AD973" s="116"/>
+      <c r="AE973" s="116"/>
+      <c r="AF973" s="116"/>
+      <c r="AG973" s="116"/>
+      <c r="AH973" s="116"/>
+      <c r="AI973" s="116"/>
+    </row>
+    <row r="1048" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1048" s="116"/>
+      <c r="D1048" s="116"/>
+      <c r="E1048" s="116"/>
+      <c r="F1048" s="116"/>
+      <c r="G1048" s="116"/>
+      <c r="H1048" s="116"/>
+      <c r="I1048" s="116"/>
+      <c r="J1048" s="116"/>
+      <c r="K1048" s="116"/>
+      <c r="L1048" s="116"/>
+      <c r="M1048" s="116"/>
+      <c r="N1048" s="116"/>
+      <c r="O1048" s="116"/>
+      <c r="P1048" s="116"/>
+      <c r="Q1048" s="116"/>
+      <c r="R1048" s="116"/>
+      <c r="S1048" s="116"/>
+      <c r="T1048" s="116"/>
+      <c r="U1048" s="116"/>
+      <c r="V1048" s="116"/>
+      <c r="W1048" s="116"/>
+      <c r="X1048" s="116"/>
+      <c r="Y1048" s="116"/>
+      <c r="Z1048" s="116"/>
+      <c r="AA1048" s="116"/>
+      <c r="AB1048" s="116"/>
+      <c r="AC1048" s="116"/>
+      <c r="AD1048" s="116"/>
+      <c r="AE1048" s="116"/>
+      <c r="AF1048" s="116"/>
+      <c r="AG1048" s="116"/>
+      <c r="AH1048" s="116"/>
+      <c r="AI1048" s="116"/>
+    </row>
+    <row r="1120" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1120" s="116"/>
+      <c r="D1120" s="116"/>
+      <c r="E1120" s="116"/>
+      <c r="F1120" s="116"/>
+      <c r="G1120" s="116"/>
+      <c r="H1120" s="116"/>
+      <c r="I1120" s="116"/>
+      <c r="J1120" s="116"/>
+      <c r="K1120" s="116"/>
+      <c r="L1120" s="116"/>
+      <c r="M1120" s="116"/>
+      <c r="N1120" s="116"/>
+      <c r="O1120" s="116"/>
+      <c r="P1120" s="116"/>
+      <c r="Q1120" s="116"/>
+      <c r="R1120" s="116"/>
+      <c r="S1120" s="116"/>
+      <c r="T1120" s="116"/>
+      <c r="U1120" s="116"/>
+      <c r="V1120" s="116"/>
+      <c r="W1120" s="116"/>
+      <c r="X1120" s="116"/>
+      <c r="Y1120" s="116"/>
+      <c r="Z1120" s="116"/>
+      <c r="AA1120" s="116"/>
+      <c r="AB1120" s="116"/>
+      <c r="AC1120" s="116"/>
+      <c r="AD1120" s="116"/>
+      <c r="AE1120" s="116"/>
+      <c r="AF1120" s="116"/>
+      <c r="AG1120" s="116"/>
+      <c r="AH1120" s="116"/>
+      <c r="AI1120" s="116"/>
+    </row>
+    <row r="1254" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1254" s="116"/>
+      <c r="D1254" s="116"/>
+      <c r="E1254" s="116"/>
+      <c r="F1254" s="116"/>
+      <c r="G1254" s="116"/>
+      <c r="H1254" s="116"/>
+      <c r="I1254" s="116"/>
+      <c r="J1254" s="116"/>
+      <c r="K1254" s="116"/>
+      <c r="L1254" s="116"/>
+      <c r="M1254" s="116"/>
+      <c r="N1254" s="116"/>
+      <c r="O1254" s="116"/>
+      <c r="P1254" s="116"/>
+      <c r="Q1254" s="116"/>
+      <c r="R1254" s="116"/>
+      <c r="S1254" s="116"/>
+      <c r="T1254" s="116"/>
+      <c r="U1254" s="116"/>
+      <c r="V1254" s="116"/>
+      <c r="W1254" s="116"/>
+      <c r="X1254" s="116"/>
+      <c r="Y1254" s="116"/>
+      <c r="Z1254" s="116"/>
+      <c r="AA1254" s="116"/>
+      <c r="AB1254" s="116"/>
+      <c r="AC1254" s="116"/>
+      <c r="AD1254" s="116"/>
+      <c r="AE1254" s="116"/>
+      <c r="AF1254" s="116"/>
+      <c r="AG1254" s="116"/>
+      <c r="AH1254" s="116"/>
+      <c r="AI1254" s="116"/>
+    </row>
+    <row r="1372" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1372" s="116"/>
+      <c r="D1372" s="116"/>
+      <c r="E1372" s="116"/>
+      <c r="F1372" s="116"/>
+      <c r="G1372" s="116"/>
+      <c r="H1372" s="116"/>
+      <c r="I1372" s="116"/>
+      <c r="J1372" s="116"/>
+      <c r="K1372" s="116"/>
+      <c r="L1372" s="116"/>
+      <c r="M1372" s="116"/>
+      <c r="N1372" s="116"/>
+      <c r="O1372" s="116"/>
+      <c r="P1372" s="116"/>
+      <c r="Q1372" s="116"/>
+      <c r="R1372" s="116"/>
+      <c r="S1372" s="116"/>
+      <c r="T1372" s="116"/>
+      <c r="U1372" s="116"/>
+      <c r="V1372" s="116"/>
+      <c r="W1372" s="116"/>
+      <c r="X1372" s="116"/>
+      <c r="Y1372" s="116"/>
+      <c r="Z1372" s="116"/>
+      <c r="AA1372" s="116"/>
+      <c r="AB1372" s="116"/>
+      <c r="AC1372" s="116"/>
+      <c r="AD1372" s="116"/>
+      <c r="AE1372" s="116"/>
+      <c r="AF1372" s="116"/>
+      <c r="AG1372" s="116"/>
+      <c r="AH1372" s="116"/>
+      <c r="AI1372" s="116"/>
+    </row>
+    <row r="1476" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1476" s="116"/>
+      <c r="D1476" s="116"/>
+      <c r="E1476" s="116"/>
+      <c r="F1476" s="116"/>
+      <c r="G1476" s="116"/>
+      <c r="H1476" s="116"/>
+      <c r="I1476" s="116"/>
+      <c r="J1476" s="116"/>
+      <c r="K1476" s="116"/>
+      <c r="L1476" s="116"/>
+      <c r="M1476" s="116"/>
+      <c r="N1476" s="116"/>
+      <c r="O1476" s="116"/>
+      <c r="P1476" s="116"/>
+      <c r="Q1476" s="116"/>
+      <c r="R1476" s="116"/>
+      <c r="S1476" s="116"/>
+      <c r="T1476" s="116"/>
+      <c r="U1476" s="116"/>
+      <c r="V1476" s="116"/>
+      <c r="W1476" s="116"/>
+      <c r="X1476" s="116"/>
+      <c r="Y1476" s="116"/>
+      <c r="Z1476" s="116"/>
+      <c r="AA1476" s="116"/>
+      <c r="AB1476" s="116"/>
+      <c r="AC1476" s="116"/>
+      <c r="AD1476" s="116"/>
+      <c r="AE1476" s="116"/>
+      <c r="AF1476" s="116"/>
+      <c r="AG1476" s="116"/>
+      <c r="AH1476" s="116"/>
+      <c r="AI1476" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -21357,14 +21359,14 @@
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="3" width="10.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>655</v>
       </c>
@@ -21375,12 +21377,12 @@
       </c>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="64" t="s">
         <v>652</v>
       </c>
@@ -21391,7 +21393,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -21411,7 +21413,7 @@
         <v>1.6916E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -21431,7 +21433,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -21451,7 +21453,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -21471,7 +21473,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -21491,7 +21493,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -21511,7 +21513,7 @@
         <v>1.9581000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -21531,7 +21533,7 @@
         <v>-1.907E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -21551,7 +21553,7 @@
         <v>6.5770000000000004E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -21571,7 +21573,7 @@
         <v>4.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -21591,7 +21593,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -21611,7 +21613,7 @@
         <v>1.8950999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -21631,7 +21633,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -21651,7 +21653,7 @@
         <v>1.7694000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -21671,7 +21673,7 @@
         <v>1.5862999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -21691,7 +21693,7 @@
         <v>1.43E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -21711,7 +21713,7 @@
         <v>3.6419999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -21731,7 +21733,7 @@
         <v>1.133E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -21751,7 +21753,7 @@
         <v>1.2174000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -21771,7 +21773,7 @@
         <v>2.3838999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -21791,7 +21793,7 @@
         <v>1.5774E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -21811,7 +21813,7 @@
         <v>1.5675999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -21831,7 +21833,7 @@
         <v>2.1440000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -21851,7 +21853,7 @@
         <v>2.1440000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -21871,7 +21873,7 @@
         <v>1.3207999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -21891,7 +21893,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -21911,7 +21913,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -21931,7 +21933,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -21951,7 +21953,7 @@
         <v>1.6435000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -21971,7 +21973,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -21991,7 +21993,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -22011,7 +22013,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -22031,7 +22033,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
@@ -22051,7 +22053,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -22071,7 +22073,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -22091,7 +22093,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -22111,7 +22113,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -22131,7 +22133,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -22151,7 +22153,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
@@ -22171,7 +22173,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -22191,7 +22193,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
@@ -22211,7 +22213,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -22231,35 +22233,35 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="74" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="74" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B54" s="66">
         <v>2015</v>
       </c>
@@ -22369,7 +22371,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -22518,7 +22520,7 @@
         <v>1.6916E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
@@ -22667,7 +22669,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="s">
         <v>41</v>
       </c>
@@ -22708,7 +22710,7 @@
       <c r="AJ57" s="96"/>
       <c r="AK57" s="96"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -22857,7 +22859,7 @@
         <v>1.0045584045584047E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -23006,7 +23008,7 @@
         <v>2.8999999999999995E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -23155,7 +23157,7 @@
         <v>1.9581000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -23304,7 +23306,7 @@
         <v>-1.907E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -23453,7 +23455,7 @@
         <v>6.5770000000000004E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -23602,7 +23604,7 @@
         <v>4.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="s">
         <v>10</v>
       </c>
@@ -23643,7 +23645,7 @@
       <c r="AJ64" s="96"/>
       <c r="AK64" s="96"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>36</v>
       </c>
@@ -23792,7 +23794,7 @@
         <v>1.8950999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>37</v>
       </c>
@@ -23941,7 +23943,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -24090,7 +24092,7 @@
         <v>1.7694000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>42</v>
       </c>
@@ -24239,7 +24241,7 @@
         <v>1.5862999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>43</v>
       </c>
@@ -24388,7 +24390,7 @@
         <v>1.43E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>44</v>
       </c>
@@ -24537,7 +24539,7 @@
         <v>3.6419999999999998E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
@@ -24686,7 +24688,7 @@
         <v>1.133E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -24835,7 +24837,7 @@
         <v>1.2174000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -24984,7 +24986,7 @@
         <v>2.3838999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>14</v>
       </c>
@@ -25133,7 +25135,7 @@
         <v>1.5774E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>15</v>
       </c>
@@ -25282,7 +25284,7 @@
         <v>1.5675999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
@@ -25431,7 +25433,7 @@
         <v>2.1440000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
@@ -25580,7 +25582,7 @@
         <v>2.1440000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
@@ -25729,7 +25731,7 @@
         <v>1.3207999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>46</v>
       </c>
@@ -25878,7 +25880,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>47</v>
       </c>
@@ -26027,7 +26029,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>48</v>
       </c>
@@ -26176,7 +26178,7 @@
         <v>1.6380645161290324E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>19</v>
       </c>
@@ -26325,7 +26327,7 @@
         <v>1.6435000000000002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>20</v>
       </c>
@@ -26474,7 +26476,7 @@
         <v>2.5021213389121336E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>21</v>
       </c>
@@ -26623,7 +26625,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>22</v>
       </c>
@@ -26772,7 +26774,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>23</v>
       </c>
@@ -26921,7 +26923,7 @@
         <v>2.6399863914719889E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>24</v>
       </c>
@@ -27070,7 +27072,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>25</v>
       </c>
@@ -27219,7 +27221,7 @@
         <v>3.7309863252836785E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>26</v>
       </c>
@@ -27368,7 +27370,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>27</v>
       </c>
@@ -27517,7 +27519,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>28</v>
       </c>
@@ -27666,7 +27668,7 @@
         <v>2.2553371629871297E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
@@ -27815,7 +27817,7 @@
         <v>7.5478431778214549E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -27964,7 +27966,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
@@ -28113,7 +28115,7 @@
         <v>2.8999999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>32</v>
       </c>
@@ -28262,7 +28264,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>33</v>
       </c>
@@ -28411,10 +28413,10 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="O98" s="73"/>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="79" t="s">
         <v>666</v>
       </c>
@@ -28455,7 +28457,7 @@
       <c r="AJ99" s="80"/>
       <c r="AK99" s="80"/>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>2015</v>
       </c>
@@ -28565,7 +28567,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -28713,7 +28715,7 @@
         <v>0.87202011991811235</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
@@ -28861,7 +28863,7 @@
         <v>-0.1467185181126216</v>
       </c>
     </row>
-    <row r="103" spans="1:37" s="93" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:37" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="s">
         <v>41</v>
       </c>
@@ -28902,7 +28904,7 @@
       <c r="AJ103" s="91"/>
       <c r="AK103" s="91"/>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
@@ -29050,7 +29052,7 @@
         <v>0.15693270302600837</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -29198,7 +29200,7 @@
         <v>1.1476142603749553</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -29346,7 +29348,7 @@
         <v>0.8180121249968364</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
@@ -29494,7 +29496,7 @@
         <v>-0.42978460827136444</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>8</v>
       </c>
@@ -29642,7 +29644,7 @@
         <v>0.44325081300317937</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>9</v>
       </c>
@@ -29790,7 +29792,7 @@
         <v>0.12198331433674636</v>
       </c>
     </row>
-    <row r="110" spans="1:37" s="93" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:37" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="s">
         <v>10</v>
       </c>
@@ -29831,7 +29833,7 @@
       <c r="AJ110" s="91"/>
       <c r="AK110" s="91"/>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>36</v>
       </c>
@@ -29979,7 +29981,7 @@
         <v>0.97985452643901305</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>37</v>
       </c>
@@ -30127,7 +30129,7 @@
         <v>0.56813399967868916</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
@@ -30275,7 +30277,7 @@
         <v>0.85202577323125772</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>42</v>
       </c>
@@ -30423,7 +30425,7 @@
         <v>1.142869833431809</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>43</v>
       </c>
@@ -30571,7 +30573,7 @@
         <v>0.7342363208798437</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>44</v>
       </c>
@@ -30719,7 +30721,7 @@
         <v>0.27250832087319488</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>45</v>
       </c>
@@ -30867,7 +30869,7 @@
         <v>0.58652727006087058</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
@@ -31015,7 +31017,7 @@
         <v>0.7159546696486272</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
@@ -31163,7 +31165,7 @@
         <v>1.1961100295261122</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>14</v>
       </c>
@@ -31311,7 +31313,7 @@
         <v>0.83037060487038761</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>15</v>
       </c>
@@ -31459,7 +31461,7 @@
         <v>0.85439303321577564</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>16</v>
       </c>
@@ -31607,7 +31609,7 @@
         <v>2.136386464011677</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>17</v>
       </c>
@@ -31755,7 +31757,7 @@
         <v>1.0435295921605419</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>18</v>
       </c>
@@ -31903,7 +31905,7 @@
         <v>0.49717475934015165</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>46</v>
       </c>
@@ -32051,7 +32053,7 @@
         <v>0.64070003180880342</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>47</v>
       </c>
@@ -32199,7 +32201,7 @@
         <v>0.26004189345377049</v>
       </c>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>48</v>
       </c>
@@ -32347,7 +32349,7 @@
         <v>0.74206717297632552</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>19</v>
       </c>
@@ -32495,7 +32497,7 @@
         <v>0.81950778340489094</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>20</v>
       </c>
@@ -32643,7 +32645,7 @@
         <v>1.6888705109082189</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>21</v>
       </c>
@@ -32791,7 +32793,7 @@
         <v>0.77057080303020253</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>22</v>
       </c>
@@ -32939,7 +32941,7 @@
         <v>1.2376282375439773</v>
       </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>23</v>
       </c>
@@ -33087,7 +33089,7 @@
         <v>1.413438288521558</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>24</v>
       </c>
@@ -33235,7 +33237,7 @@
         <v>1.2829820262414611</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>25</v>
       </c>
@@ -33383,7 +33385,7 @@
         <v>6.3026508365389411</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>26</v>
       </c>
@@ -33531,7 +33533,7 @@
         <v>0.58867919577448191</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>27</v>
       </c>
@@ -33679,7 +33681,7 @@
         <v>0.99393890349025305</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>28</v>
       </c>
@@ -33827,7 +33829,7 @@
         <v>1.3520851112615468</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>29</v>
       </c>
@@ -33975,7 +33977,7 @@
         <v>0.26306717039023853</v>
       </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>30</v>
       </c>
@@ -34123,7 +34125,7 @@
         <v>0.57665346151801189</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>31</v>
       </c>
@@ -34271,7 +34273,7 @@
         <v>1.6987351801710924</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>32</v>
       </c>
@@ -34419,7 +34421,7 @@
         <v>1.1755786499948466</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>33</v>
       </c>
@@ -34576,27 +34578,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF787FF-7BEC-4DDA-A8E4-ACCC37DDA997}">
   <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>2019</v>
       </c>
@@ -34694,7 +34696,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>729</v>
       </c>
@@ -34795,7 +34797,7 @@
         <v>145000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>730</v>
       </c>
@@ -34896,7 +34898,7 @@
         <v>989054000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="93" t="s">
         <v>736</v>
       </c>
@@ -35029,7 +35031,7 @@
         <v>1134054000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="93"/>
       <c r="B7" s="93"/>
       <c r="C7" s="93"/>
@@ -35064,12 +35066,12 @@
       <c r="AF7" s="93"/>
       <c r="AG7" s="93"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
         <v>738</v>
       </c>
@@ -35170,7 +35172,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>731</v>
       </c>
@@ -35271,7 +35273,7 @@
         <v>524085000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>732</v>
       </c>
@@ -35372,7 +35374,7 @@
         <v>532757000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>733</v>
       </c>
@@ -35473,7 +35475,7 @@
         <v>198768000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>734</v>
       </c>
@@ -35574,7 +35576,7 @@
         <v>163743000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>735</v>
       </c>
@@ -35676,7 +35678,7 @@
         <v>19468400000000</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="s">
         <v>736</v>
       </c>
@@ -35809,12 +35811,12 @@
         <v>1438821400000000</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="101" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>740</v>
       </c>
@@ -35912,7 +35914,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>739</v>
       </c>
@@ -36010,12 +36012,12 @@
         <v>7.3666300000000003E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>742</v>
       </c>
@@ -36113,12 +36115,12 @@
         <v>1.7543399999999999E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="s">
         <v>744</v>
       </c>
@@ -36216,7 +36218,7 @@
         <v>2.8193700000000001E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="s">
         <v>745</v>
       </c>
@@ -36314,7 +36316,7 @@
         <v>2.75893E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="s">
         <v>746</v>
       </c>
@@ -36412,7 +36414,7 @@
         <v>2.2903599999999999E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="s">
         <v>747</v>
       </c>
@@ -36510,7 +36512,7 @@
         <v>1.6425600000000001E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
         <v>748</v>
       </c>
@@ -36608,7 +36610,133 @@
         <v>2.3832000000000002E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B30" s="100">
+        <f>SUM(B32:B33)</f>
+        <v>6627651869.999999</v>
+      </c>
+      <c r="C30" s="100">
+        <f t="shared" ref="C30:AE30" si="2">SUM(C32:C33)</f>
+        <v>10275073880</v>
+      </c>
+      <c r="D30" s="100">
+        <f t="shared" si="2"/>
+        <v>20059593316.599998</v>
+      </c>
+      <c r="E30" s="100">
+        <f t="shared" si="2"/>
+        <v>17172029425.5</v>
+      </c>
+      <c r="F30" s="100">
+        <f t="shared" si="2"/>
+        <v>16131837793.199999</v>
+      </c>
+      <c r="G30" s="100">
+        <f t="shared" si="2"/>
+        <v>15161003574.6</v>
+      </c>
+      <c r="H30" s="100">
+        <f t="shared" si="2"/>
+        <v>14185504704.9</v>
+      </c>
+      <c r="I30" s="100">
+        <f t="shared" si="2"/>
+        <v>14697067882.800001</v>
+      </c>
+      <c r="J30" s="100">
+        <f t="shared" si="2"/>
+        <v>15132039201.6</v>
+      </c>
+      <c r="K30" s="100">
+        <f t="shared" si="2"/>
+        <v>15508500490.199999</v>
+      </c>
+      <c r="L30" s="100">
+        <f t="shared" si="2"/>
+        <v>15914847000</v>
+      </c>
+      <c r="M30" s="100">
+        <f t="shared" si="2"/>
+        <v>16149038148.800001</v>
+      </c>
+      <c r="N30" s="100">
+        <f t="shared" si="2"/>
+        <v>16335585165.199999</v>
+      </c>
+      <c r="O30" s="100">
+        <f t="shared" si="2"/>
+        <v>16423660014.999998</v>
+      </c>
+      <c r="P30" s="100">
+        <f t="shared" si="2"/>
+        <v>16459384694</v>
+      </c>
+      <c r="Q30" s="100">
+        <f t="shared" si="2"/>
+        <v>16566462678.499998</v>
+      </c>
+      <c r="R30" s="100">
+        <f t="shared" si="2"/>
+        <v>16720205423.200001</v>
+      </c>
+      <c r="S30" s="100">
+        <f t="shared" si="2"/>
+        <v>16858793420.700001</v>
+      </c>
+      <c r="T30" s="100">
+        <f t="shared" si="2"/>
+        <v>17012124448.799999</v>
+      </c>
+      <c r="U30" s="100">
+        <f t="shared" si="2"/>
+        <v>17047366906.499998</v>
+      </c>
+      <c r="V30" s="100">
+        <f t="shared" si="2"/>
+        <v>17302954460.199997</v>
+      </c>
+      <c r="W30" s="100">
+        <f t="shared" si="2"/>
+        <v>17443208011.299999</v>
+      </c>
+      <c r="X30" s="100">
+        <f t="shared" si="2"/>
+        <v>17512676058</v>
+      </c>
+      <c r="Y30" s="100">
+        <f t="shared" si="2"/>
+        <v>17762937416.5</v>
+      </c>
+      <c r="Z30" s="100">
+        <f t="shared" si="2"/>
+        <v>18062361635.5</v>
+      </c>
+      <c r="AA30" s="100">
+        <f t="shared" si="2"/>
+        <v>18154783584</v>
+      </c>
+      <c r="AB30" s="100">
+        <f t="shared" si="2"/>
+        <v>18369580634</v>
+      </c>
+      <c r="AC30" s="100">
+        <f t="shared" si="2"/>
+        <v>18375206072</v>
+      </c>
+      <c r="AD30" s="100">
+        <f t="shared" si="2"/>
+        <v>18398964581</v>
+      </c>
+      <c r="AE30" s="100">
+        <f t="shared" si="2"/>
+        <v>18461157725</v>
+      </c>
+      <c r="AF30" s="100">
+        <f>SUM(AF32:AF33)</f>
+        <v>18419531293.599998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="101" t="s">
         <v>750</v>
       </c>
@@ -36706,7 +36834,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>729</v>
       </c>
@@ -36715,127 +36843,127 @@
         <v>658465920.00000012</v>
       </c>
       <c r="C32" s="100">
-        <f t="shared" ref="C32:AF32" si="2">D4*C19</f>
+        <f t="shared" ref="C32:AF32" si="3">D4*C19</f>
         <v>1049333880</v>
       </c>
       <c r="D32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1140107800</v>
       </c>
       <c r="E32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1145016000</v>
       </c>
       <c r="F32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1120500240</v>
       </c>
       <c r="G32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1155540960</v>
       </c>
       <c r="H32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1175514240</v>
       </c>
       <c r="I32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1202218520</v>
       </c>
       <c r="J32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1226942100</v>
       </c>
       <c r="K32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1244405100</v>
       </c>
       <c r="L32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1267655760</v>
       </c>
       <c r="M32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1242257680</v>
       </c>
       <c r="N32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1233237360</v>
       </c>
       <c r="O32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1180666690</v>
       </c>
       <c r="P32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1150705350</v>
       </c>
       <c r="Q32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1128246000</v>
       </c>
       <c r="R32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1075824360</v>
       </c>
       <c r="S32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1063077120</v>
       </c>
       <c r="T32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1043199780</v>
       </c>
       <c r="U32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1025277900</v>
       </c>
       <c r="V32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1031467570</v>
       </c>
       <c r="W32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1009957150</v>
       </c>
       <c r="X32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1014393840</v>
       </c>
       <c r="Y32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1016481780</v>
       </c>
       <c r="Z32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024035600</v>
       </c>
       <c r="AA32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1030507800</v>
       </c>
       <c r="AB32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1039370220</v>
       </c>
       <c r="AC32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1045688000</v>
       </c>
       <c r="AD32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1057828200</v>
       </c>
       <c r="AE32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1066170500</v>
       </c>
       <c r="AF32" s="100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1068161350</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>730</v>
       </c>
@@ -36844,127 +36972,127 @@
         <v>5969185949.999999</v>
       </c>
       <c r="C33" s="100">
-        <f t="shared" ref="C33:AF33" si="3">D5*C22</f>
+        <f t="shared" ref="C33:AF33" si="4">D5*C22</f>
         <v>9225740000</v>
       </c>
       <c r="D33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18919485516.599998</v>
       </c>
       <c r="E33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16027013425.5</v>
       </c>
       <c r="F33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15011337553.199999</v>
       </c>
       <c r="G33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14005462614.6</v>
       </c>
       <c r="H33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13009990464.9</v>
       </c>
       <c r="I33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13494849362.800001</v>
       </c>
       <c r="J33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13905097101.6</v>
       </c>
       <c r="K33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14264095390.199999</v>
       </c>
       <c r="L33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14647191240</v>
       </c>
       <c r="M33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14906780468.800001</v>
       </c>
       <c r="N33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15102347805.199999</v>
       </c>
       <c r="O33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15242993324.999998</v>
       </c>
       <c r="P33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15308679344</v>
       </c>
       <c r="Q33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15438216678.499998</v>
       </c>
       <c r="R33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15644381063.200001</v>
       </c>
       <c r="S33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15795716300.700001</v>
       </c>
       <c r="T33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15968924668.799999</v>
       </c>
       <c r="U33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16022089006.499998</v>
       </c>
       <c r="V33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16271486890.199999</v>
       </c>
       <c r="W33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16433250861.299999</v>
       </c>
       <c r="X33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16498282218</v>
       </c>
       <c r="Y33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16746455636.499998</v>
       </c>
       <c r="Z33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17038326035.499998</v>
       </c>
       <c r="AA33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17124275784</v>
       </c>
       <c r="AB33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17330210414</v>
       </c>
       <c r="AC33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17329518072</v>
       </c>
       <c r="AD33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17341136381</v>
       </c>
       <c r="AE33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17394987225</v>
       </c>
       <c r="AF33" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17351369943.599998</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>731</v>
       </c>
@@ -36973,127 +37101,127 @@
         <v>31835458954</v>
       </c>
       <c r="C34" s="100">
-        <f t="shared" ref="C34:AF34" si="4">D10*C25</f>
+        <f t="shared" ref="C34:AF34" si="5">D10*C25</f>
         <v>46252791648</v>
       </c>
       <c r="D34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58004712077</v>
       </c>
       <c r="E34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52166565536</v>
       </c>
       <c r="F34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45332712208</v>
       </c>
       <c r="G34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38228176350</v>
       </c>
       <c r="H34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37787458035</v>
       </c>
       <c r="I34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37288205568</v>
       </c>
       <c r="J34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36646443540</v>
       </c>
       <c r="K34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36521955400</v>
       </c>
       <c r="L34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36450706458</v>
       </c>
       <c r="M34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35503748876</v>
       </c>
       <c r="N34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34412419713</v>
       </c>
       <c r="O34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33469341180</v>
       </c>
       <c r="P34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32297332210</v>
       </c>
       <c r="Q34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31305688470</v>
       </c>
       <c r="R34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30241750294</v>
       </c>
       <c r="S34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29195114180</v>
       </c>
       <c r="T34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27717330484</v>
       </c>
       <c r="U34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26361020826.900002</v>
       </c>
       <c r="V34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24949270268.100002</v>
       </c>
       <c r="W34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23434680490.400002</v>
       </c>
       <c r="X34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22194889615.700001</v>
       </c>
       <c r="Y34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21047117034.299999</v>
       </c>
       <c r="Z34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19806950192.5</v>
       </c>
       <c r="AA34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18783390807.099998</v>
       </c>
       <c r="AB34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17791914992</v>
       </c>
       <c r="AC34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16827957988.6</v>
       </c>
       <c r="AD34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16043651856</v>
       </c>
       <c r="AE34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15360970926.9</v>
       </c>
       <c r="AF34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14775895264.5</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>732</v>
       </c>
@@ -37102,127 +37230,127 @@
         <v>12943186376.4</v>
       </c>
       <c r="C35" s="100">
-        <f t="shared" ref="C35:AF35" si="5">D11*C26</f>
+        <f t="shared" ref="C35:AF35" si="6">D11*C26</f>
         <v>15246275067.099998</v>
       </c>
       <c r="D35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19891493768.400002</v>
       </c>
       <c r="E35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17832417024.799999</v>
       </c>
       <c r="F35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16007670201.200001</v>
       </c>
       <c r="G35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14299706169.6</v>
       </c>
       <c r="H35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14002752601.5</v>
       </c>
       <c r="I35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13713716382.6</v>
       </c>
       <c r="J35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13572280893</v>
       </c>
       <c r="K35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13316191417.4</v>
       </c>
       <c r="L35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12900895539.200001</v>
       </c>
       <c r="M35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13164942616.199999</v>
       </c>
       <c r="N35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13164271993.6</v>
       </c>
       <c r="O35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13180261264.800001</v>
       </c>
       <c r="P35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13179929604</v>
       </c>
       <c r="Q35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13190524952</v>
       </c>
       <c r="R35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13310461246.799999</v>
       </c>
       <c r="S35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13378145184</v>
       </c>
       <c r="T35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13412017470</v>
       </c>
       <c r="U35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13416244701.9</v>
       </c>
       <c r="V35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13517308035.699999</v>
       </c>
       <c r="W35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13518844516.800001</v>
       </c>
       <c r="X35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13593354230.4</v>
       </c>
       <c r="Y35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13731936625.1</v>
       </c>
       <c r="Z35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13941196600.1</v>
       </c>
       <c r="AA35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13973815910.6</v>
       </c>
       <c r="AB35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14219781100.5</v>
       </c>
       <c r="AC35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14352012640.5</v>
       </c>
       <c r="AD35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14429931746.1</v>
       </c>
       <c r="AE35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14588151396</v>
       </c>
       <c r="AF35" s="100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14698392700.1</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>751</v>
       </c>
@@ -37231,127 +37359,127 @@
         <v>3601280691</v>
       </c>
       <c r="C36" s="100">
-        <f t="shared" ref="C36:AF36" si="6">D12*C27</f>
+        <f t="shared" ref="C36:AF36" si="7">D12*C27</f>
         <v>6705825907.1999998</v>
       </c>
       <c r="D36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5843748834</v>
       </c>
       <c r="E36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5304147036.6999998</v>
       </c>
       <c r="F36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5576088741.4000006</v>
       </c>
       <c r="G36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5474912764.8000002</v>
       </c>
       <c r="H36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5401460476.8000002</v>
       </c>
       <c r="I36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5365977384.8000002</v>
       </c>
       <c r="J36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5322047703.1999998</v>
       </c>
       <c r="K36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5250561664.5</v>
       </c>
       <c r="L36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5120311615</v>
       </c>
       <c r="M36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5091542050</v>
       </c>
       <c r="N36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4992553192.6000004</v>
       </c>
       <c r="O36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4882835731.2000008</v>
       </c>
       <c r="P36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4796148508.5</v>
       </c>
       <c r="Q36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4704349444.3999996</v>
       </c>
       <c r="R36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4649479058.1999998</v>
       </c>
       <c r="S36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4616410210.2000008</v>
       </c>
       <c r="T36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4576948995.1999998</v>
       </c>
       <c r="U36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4530393472.1000004</v>
       </c>
       <c r="V36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4511563027.1999998</v>
       </c>
       <c r="W36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4508765563.3999996</v>
       </c>
       <c r="X36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4493871414.8000002</v>
       </c>
       <c r="Y36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4541714248.5</v>
       </c>
       <c r="Z36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4602268070.3999996</v>
       </c>
       <c r="AA36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4627264330.8000002</v>
       </c>
       <c r="AB36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4601444998.8000002</v>
       </c>
       <c r="AC36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4609900400.5999994</v>
       </c>
       <c r="AD36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4592566314.4000006</v>
       </c>
       <c r="AE36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4584070790.1999998</v>
       </c>
       <c r="AF36" s="100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4552502764.8000002</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>734</v>
       </c>
@@ -37360,127 +37488,127 @@
         <v>400946898.93799996</v>
       </c>
       <c r="C37" s="100">
-        <f t="shared" ref="C37:AF37" si="7">D13*C28</f>
+        <f t="shared" ref="C37:AF37" si="8">D13*C28</f>
         <v>409447757.84400004</v>
       </c>
       <c r="D37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>320180084.21099997</v>
       </c>
       <c r="E37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>482250246.51999998</v>
       </c>
       <c r="F37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>635051446.43700004</v>
       </c>
       <c r="G37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>764758514.70000005</v>
       </c>
       <c r="H37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>806490697.30000007</v>
       </c>
       <c r="I37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>941551403.5200001</v>
       </c>
       <c r="J37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>983369203.79999995</v>
       </c>
       <c r="K37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1071768677.04</v>
       </c>
       <c r="L37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1147263490.02</v>
       </c>
       <c r="M37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1302795449.2</v>
       </c>
       <c r="N37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1376919944.4000001</v>
       </c>
       <c r="O37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1444239137.6000001</v>
       </c>
       <c r="P37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1495303231.2</v>
       </c>
       <c r="Q37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1554557262.6000001</v>
       </c>
       <c r="R37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1538676148.8</v>
       </c>
       <c r="S37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1598734902.3999999</v>
       </c>
       <c r="T37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1661144248.3999999</v>
       </c>
       <c r="U37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1718699108</v>
       </c>
       <c r="V37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1822862485.4000001</v>
       </c>
       <c r="W37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1924347188.4000001</v>
       </c>
       <c r="X37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1949517268.5999999</v>
       </c>
       <c r="Y37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2103122088.8</v>
       </c>
       <c r="Z37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2161424489</v>
       </c>
       <c r="AA37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2274904011.5999999</v>
       </c>
       <c r="AB37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2358832833.5999999</v>
       </c>
       <c r="AC37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2455494883.5999999</v>
       </c>
       <c r="AD37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2533762667</v>
       </c>
       <c r="AE37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2618424732</v>
       </c>
       <c r="AF37" s="100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2689577020.8000002</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>752</v>
       </c>
@@ -37489,127 +37617,127 @@
         <v>360566484.95999998</v>
       </c>
       <c r="C38" s="100">
-        <f t="shared" ref="C38:AF38" si="8">D14*C29</f>
+        <f t="shared" ref="C38:AF38" si="9">D14*C29</f>
         <v>309354446.94</v>
       </c>
       <c r="D38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>391119994.31999999</v>
       </c>
       <c r="E38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>407107081.50000006</v>
       </c>
       <c r="F38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>381303785.50999999</v>
       </c>
       <c r="G38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>386257758.11000001</v>
       </c>
       <c r="H38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>386778553.59999996</v>
       </c>
       <c r="I38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>394385799.06</v>
       </c>
       <c r="J38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>403392638.88</v>
       </c>
       <c r="K38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>413628327.41000003</v>
       </c>
       <c r="L38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>422676578.97000003</v>
       </c>
       <c r="M38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>425238098.44</v>
       </c>
       <c r="N38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>433408219.18000001</v>
       </c>
       <c r="O38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>435945000.95999998</v>
       </c>
       <c r="P38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>438907937.15999997</v>
       </c>
       <c r="Q38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>438004690.80000001</v>
       </c>
       <c r="R38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>435897536.63999999</v>
       </c>
       <c r="S38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>435521568.95999998</v>
       </c>
       <c r="T38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>435688319.14999998</v>
       </c>
       <c r="U38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>435509359.5</v>
       </c>
       <c r="V38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>434486332.52999997</v>
       </c>
       <c r="W38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>437704013.19999999</v>
       </c>
       <c r="X38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>440475506.28000003</v>
       </c>
       <c r="Y38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>442077779.69999999</v>
       </c>
       <c r="Z38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>445783197.54000002</v>
       </c>
       <c r="AA38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>450557418.78000003</v>
       </c>
       <c r="AB38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>451718074.60000002</v>
       </c>
       <c r="AC38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>455723271.89999998</v>
       </c>
       <c r="AD38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>459064513.12</v>
       </c>
       <c r="AE38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>461974180.03999996</v>
       </c>
       <c r="AF38" s="100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>463970908.80000001</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>2020</v>
       </c>
@@ -37704,7 +37832,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -37713,256 +37841,256 @@
         <v>6627651869.999999</v>
       </c>
       <c r="C41" s="100">
-        <f t="shared" ref="C41:AF41" si="9">SUM(C32:C33)</f>
+        <f t="shared" ref="C41:AF41" si="10">SUM(C32:C33)</f>
         <v>10275073880</v>
       </c>
       <c r="D41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20059593316.599998</v>
       </c>
       <c r="E41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17172029425.5</v>
       </c>
       <c r="F41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16131837793.199999</v>
       </c>
       <c r="G41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15161003574.6</v>
       </c>
       <c r="H41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14185504704.9</v>
       </c>
       <c r="I41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14697067882.800001</v>
       </c>
       <c r="J41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15132039201.6</v>
       </c>
       <c r="K41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15508500490.199999</v>
       </c>
       <c r="L41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15914847000</v>
       </c>
       <c r="M41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16149038148.800001</v>
       </c>
       <c r="N41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16335585165.199999</v>
       </c>
       <c r="O41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16423660014.999998</v>
       </c>
       <c r="P41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16459384694</v>
       </c>
       <c r="Q41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16566462678.499998</v>
       </c>
       <c r="R41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16720205423.200001</v>
       </c>
       <c r="S41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16858793420.700001</v>
       </c>
       <c r="T41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17012124448.799999</v>
       </c>
       <c r="U41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17047366906.499998</v>
       </c>
       <c r="V41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17302954460.199997</v>
       </c>
       <c r="W41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17443208011.299999</v>
       </c>
       <c r="X41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17512676058</v>
       </c>
       <c r="Y41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17762937416.5</v>
       </c>
       <c r="Z41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18062361635.5</v>
       </c>
       <c r="AA41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18154783584</v>
       </c>
       <c r="AB41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18369580634</v>
       </c>
       <c r="AC41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18375206072</v>
       </c>
       <c r="AD41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18398964581</v>
       </c>
       <c r="AE41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18461157725</v>
       </c>
       <c r="AF41" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18419531293.599998</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A42" s="118" t="s">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" s="102" t="s">
         <v>753</v>
       </c>
-      <c r="B42" s="119">
+      <c r="B42" s="103">
         <f>C42</f>
         <v>0.55033397673013296</v>
       </c>
-      <c r="C42" s="119">
+      <c r="C42" s="103">
         <f>C41/$B$41-1</f>
         <v>0.55033397673013296</v>
       </c>
-      <c r="D42" s="119">
-        <f t="shared" ref="D42:AF42" si="10">D41/$B$41-1</f>
+      <c r="D42" s="103">
+        <f t="shared" ref="D42:AF42" si="11">D41/$B$41-1</f>
         <v>2.0266516271621855</v>
       </c>
-      <c r="E42" s="119">
-        <f t="shared" si="10"/>
+      <c r="E42" s="103">
+        <f t="shared" si="11"/>
         <v>1.5909673233183872</v>
       </c>
-      <c r="F42" s="119">
-        <f t="shared" si="10"/>
+      <c r="F42" s="103">
+        <f t="shared" si="11"/>
         <v>1.4340200888071091</v>
       </c>
-      <c r="G42" s="119">
-        <f t="shared" si="10"/>
+      <c r="G42" s="103">
+        <f t="shared" si="11"/>
         <v>1.2875377089774638</v>
       </c>
-      <c r="H42" s="119">
-        <f t="shared" si="10"/>
+      <c r="H42" s="103">
+        <f t="shared" si="11"/>
         <v>1.1403515125938566</v>
       </c>
-      <c r="I42" s="119">
-        <f t="shared" si="10"/>
+      <c r="I42" s="103">
+        <f t="shared" si="11"/>
         <v>1.2175376997886889</v>
       </c>
-      <c r="J42" s="119">
-        <f t="shared" si="10"/>
+      <c r="J42" s="103">
+        <f t="shared" si="11"/>
         <v>1.2831674774734361</v>
       </c>
-      <c r="K42" s="119">
-        <f t="shared" si="10"/>
+      <c r="K42" s="103">
+        <f t="shared" si="11"/>
         <v>1.3399690862459259</v>
       </c>
-      <c r="L42" s="119">
-        <f t="shared" si="10"/>
+      <c r="L42" s="103">
+        <f t="shared" si="11"/>
         <v>1.4012798668618065</v>
       </c>
-      <c r="M42" s="119">
-        <f t="shared" si="10"/>
+      <c r="M42" s="103">
+        <f t="shared" si="11"/>
         <v>1.4366153300686273</v>
       </c>
-      <c r="N42" s="119">
-        <f t="shared" si="10"/>
+      <c r="N42" s="103">
+        <f t="shared" si="11"/>
         <v>1.4647621036256995</v>
       </c>
-      <c r="O42" s="119">
-        <f t="shared" si="10"/>
+      <c r="O42" s="103">
+        <f t="shared" si="11"/>
         <v>1.4780511012265949</v>
       </c>
-      <c r="P42" s="119">
-        <f t="shared" si="10"/>
+      <c r="P42" s="103">
+        <f t="shared" si="11"/>
         <v>1.4834413479837774</v>
       </c>
-      <c r="Q42" s="119">
-        <f t="shared" si="10"/>
+      <c r="Q42" s="103">
+        <f t="shared" si="11"/>
         <v>1.4995975955659242</v>
       </c>
-      <c r="R42" s="119">
-        <f t="shared" si="10"/>
+      <c r="R42" s="103">
+        <f t="shared" si="11"/>
         <v>1.5227947621817384</v>
       </c>
-      <c r="S42" s="119">
-        <f t="shared" si="10"/>
+      <c r="S42" s="103">
+        <f t="shared" si="11"/>
         <v>1.5437053350691463</v>
       </c>
-      <c r="T42" s="119">
-        <f t="shared" si="10"/>
+      <c r="T42" s="103">
+        <f t="shared" si="11"/>
         <v>1.5668403806490221</v>
       </c>
-      <c r="U42" s="119">
-        <f t="shared" si="10"/>
+      <c r="U42" s="103">
+        <f t="shared" si="11"/>
         <v>1.5721578684095849</v>
       </c>
-      <c r="V42" s="119">
-        <f t="shared" si="10"/>
+      <c r="V42" s="103">
+        <f t="shared" si="11"/>
         <v>1.6107216853862902</v>
       </c>
-      <c r="W42" s="119">
-        <f t="shared" si="10"/>
+      <c r="W42" s="103">
+        <f t="shared" si="11"/>
         <v>1.6318835619982561</v>
       </c>
-      <c r="X42" s="119">
-        <f t="shared" si="10"/>
+      <c r="X42" s="103">
+        <f t="shared" si="11"/>
         <v>1.642365109318876</v>
       </c>
-      <c r="Y42" s="119">
-        <f t="shared" si="10"/>
+      <c r="Y42" s="103">
+        <f t="shared" si="11"/>
         <v>1.6801252939828903</v>
       </c>
-      <c r="Z42" s="119">
-        <f t="shared" si="10"/>
+      <c r="Z42" s="103">
+        <f t="shared" si="11"/>
         <v>1.725303318549229</v>
       </c>
-      <c r="AA42" s="119">
-        <f t="shared" si="10"/>
+      <c r="AA42" s="103">
+        <f t="shared" si="11"/>
         <v>1.7392482194451779</v>
       </c>
-      <c r="AB42" s="119">
-        <f t="shared" si="10"/>
+      <c r="AB42" s="103">
+        <f t="shared" si="11"/>
         <v>1.7716574428342753</v>
       </c>
-      <c r="AC42" s="119">
-        <f t="shared" si="10"/>
+      <c r="AC42" s="103">
+        <f t="shared" si="11"/>
         <v>1.7725062257984896</v>
       </c>
-      <c r="AD42" s="119">
-        <f t="shared" si="10"/>
+      <c r="AD42" s="103">
+        <f t="shared" si="11"/>
         <v>1.7760909809223282</v>
       </c>
-      <c r="AE42" s="119">
-        <f t="shared" si="10"/>
+      <c r="AE42" s="103">
+        <f t="shared" si="11"/>
         <v>1.7854748690956823</v>
       </c>
-      <c r="AF42" s="119">
-        <f t="shared" si="10"/>
+      <c r="AF42" s="103">
+        <f t="shared" si="11"/>
         <v>1.7791941482285494</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>2020</v>
       </c>
@@ -38057,7 +38185,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -38066,252 +38194,252 @@
         <v>49141439405.298004</v>
       </c>
       <c r="C45" s="100">
-        <f t="shared" ref="C45:AF45" si="11">SUM(C34:C38)</f>
+        <f t="shared" ref="C45:AF45" si="12">SUM(C34:C38)</f>
         <v>68923694827.084</v>
       </c>
       <c r="D45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>84451254757.931</v>
       </c>
       <c r="E45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>76192486925.520004</v>
       </c>
       <c r="F45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>67932826382.546997</v>
       </c>
       <c r="G45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>59153811557.209999</v>
       </c>
       <c r="H45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>58384940364.200005</v>
       </c>
       <c r="I45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57703836537.979996</v>
       </c>
       <c r="J45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56927533978.879997</v>
       </c>
       <c r="K45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56574105486.350006</v>
       </c>
       <c r="L45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56041853681.189995</v>
       </c>
       <c r="M45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55488267089.839996</v>
       </c>
       <c r="N45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54379573062.779999</v>
       </c>
       <c r="O45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>53412622314.559998</v>
       </c>
       <c r="P45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52207621490.860001</v>
       </c>
       <c r="Q45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51193124819.800003</v>
       </c>
       <c r="R45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50176264284.440002</v>
       </c>
       <c r="S45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49223926045.559998</v>
       </c>
       <c r="T45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47803129516.75</v>
       </c>
       <c r="U45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46461867468.400002</v>
       </c>
       <c r="V45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45235490148.93</v>
       </c>
       <c r="W45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43824341772.200005</v>
       </c>
       <c r="X45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42672108035.779999</v>
       </c>
       <c r="Y45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41865967776.400002</v>
       </c>
       <c r="Z45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40957622549.540001</v>
       </c>
       <c r="AA45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40109932478.879997</v>
       </c>
       <c r="AB45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39423691999.5</v>
       </c>
       <c r="AC45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38701089185.199997</v>
       </c>
       <c r="AD45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38058977096.620003</v>
       </c>
       <c r="AE45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37613592025.139999</v>
       </c>
       <c r="AF45" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37180338659</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="118" t="s">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="102" t="s">
         <v>753</v>
       </c>
-      <c r="B46" s="119">
+      <c r="B46" s="103">
         <f>C46</f>
         <v>0.402557508717444</v>
       </c>
-      <c r="C46" s="119">
+      <c r="C46" s="103">
         <f>C45/$B$45-1</f>
         <v>0.402557508717444</v>
       </c>
-      <c r="D46" s="119">
-        <f t="shared" ref="D46:AF46" si="12">D45/$B$45-1</f>
+      <c r="D46" s="103">
+        <f t="shared" ref="D46:AF46" si="13">D45/$B$45-1</f>
         <v>0.71853441372387228</v>
       </c>
-      <c r="E46" s="119">
-        <f t="shared" si="12"/>
+      <c r="E46" s="103">
+        <f t="shared" si="13"/>
         <v>0.55047324310377421</v>
       </c>
-      <c r="F46" s="119">
-        <f t="shared" si="12"/>
+      <c r="F46" s="103">
+        <f t="shared" si="13"/>
         <v>0.38239390633769399</v>
       </c>
-      <c r="G46" s="119">
-        <f t="shared" si="12"/>
+      <c r="G46" s="103">
+        <f t="shared" si="13"/>
         <v>0.20374600893014438</v>
       </c>
-      <c r="H46" s="119">
-        <f t="shared" si="12"/>
+      <c r="H46" s="103">
+        <f t="shared" si="13"/>
         <v>0.18809992280986076</v>
       </c>
-      <c r="I46" s="119">
-        <f t="shared" si="12"/>
+      <c r="I46" s="103">
+        <f t="shared" si="13"/>
         <v>0.17423985207398851</v>
       </c>
-      <c r="J46" s="119">
-        <f t="shared" si="12"/>
+      <c r="J46" s="103">
+        <f t="shared" si="13"/>
         <v>0.15844254193218776</v>
       </c>
-      <c r="K46" s="119">
-        <f t="shared" si="12"/>
+      <c r="K46" s="103">
+        <f t="shared" si="13"/>
         <v>0.15125047558640858</v>
       </c>
-      <c r="L46" s="119">
-        <f t="shared" si="12"/>
+      <c r="L46" s="103">
+        <f t="shared" si="13"/>
         <v>0.14041945778145126</v>
       </c>
-      <c r="M46" s="119">
-        <f t="shared" si="12"/>
+      <c r="M46" s="103">
+        <f t="shared" si="13"/>
         <v>0.12915428936047268</v>
       </c>
-      <c r="N46" s="119">
-        <f t="shared" si="12"/>
+      <c r="N46" s="103">
+        <f t="shared" si="13"/>
         <v>0.10659300421137563</v>
       </c>
-      <c r="O46" s="119">
-        <f t="shared" si="12"/>
+      <c r="O46" s="103">
+        <f t="shared" si="13"/>
         <v>8.6916113181688903E-2</v>
       </c>
-      <c r="P46" s="119">
-        <f t="shared" si="12"/>
+      <c r="P46" s="103">
+        <f t="shared" si="13"/>
         <v>6.239504016708608E-2</v>
       </c>
-      <c r="Q46" s="119">
-        <f t="shared" si="12"/>
+      <c r="Q46" s="103">
+        <f t="shared" si="13"/>
         <v>4.1750616980926303E-2</v>
       </c>
-      <c r="R46" s="119">
-        <f t="shared" si="12"/>
+      <c r="R46" s="103">
+        <f t="shared" si="13"/>
         <v>2.105809051719465E-2</v>
       </c>
-      <c r="S46" s="119">
-        <f t="shared" si="12"/>
+      <c r="S46" s="103">
+        <f t="shared" si="13"/>
         <v>1.6785556398069001E-3</v>
       </c>
-      <c r="T46" s="119">
-        <f t="shared" si="12"/>
+      <c r="T46" s="103">
+        <f t="shared" si="13"/>
         <v>-2.7233835735054224E-2</v>
       </c>
-      <c r="U46" s="119">
-        <f t="shared" si="12"/>
+      <c r="U46" s="103">
+        <f t="shared" si="13"/>
         <v>-5.4527746222450157E-2</v>
       </c>
-      <c r="V46" s="119">
-        <f t="shared" si="12"/>
+      <c r="V46" s="103">
+        <f t="shared" si="13"/>
         <v>-7.9483818619014657E-2</v>
       </c>
-      <c r="W46" s="119">
-        <f t="shared" si="12"/>
+      <c r="W46" s="103">
+        <f t="shared" si="13"/>
         <v>-0.1081998756537188</v>
       </c>
-      <c r="X46" s="119">
-        <f t="shared" si="12"/>
+      <c r="X46" s="103">
+        <f t="shared" si="13"/>
         <v>-0.13164716882144356</v>
       </c>
-      <c r="Y46" s="119">
-        <f t="shared" si="12"/>
+      <c r="Y46" s="103">
+        <f t="shared" si="13"/>
         <v>-0.14805165898566708</v>
       </c>
-      <c r="Z46" s="119">
-        <f t="shared" si="12"/>
+      <c r="Z46" s="103">
+        <f t="shared" si="13"/>
         <v>-0.16653596139627314</v>
       </c>
-      <c r="AA46" s="119">
-        <f t="shared" si="12"/>
+      <c r="AA46" s="103">
+        <f t="shared" si="13"/>
         <v>-0.18378596629882815</v>
       </c>
-      <c r="AB46" s="119">
-        <f t="shared" si="12"/>
+      <c r="AB46" s="103">
+        <f t="shared" si="13"/>
         <v>-0.19775056496921251</v>
       </c>
-      <c r="AC46" s="119">
-        <f t="shared" si="12"/>
+      <c r="AC46" s="103">
+        <f t="shared" si="13"/>
         <v>-0.21245511622055624</v>
       </c>
-      <c r="AD46" s="119">
-        <f t="shared" si="12"/>
+      <c r="AD46" s="103">
+        <f t="shared" si="13"/>
         <v>-0.22552172754392674</v>
       </c>
-      <c r="AE46" s="119">
-        <f t="shared" si="12"/>
+      <c r="AE46" s="103">
+        <f t="shared" si="13"/>
         <v>-0.23458505732974466</v>
       </c>
-      <c r="AF46" s="119">
-        <f t="shared" si="12"/>
+      <c r="AF46" s="103">
+        <f t="shared" si="13"/>
         <v>-0.24340151389640541</v>
       </c>
     </row>
@@ -38329,12 +38457,12 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -38465,7 +38593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -38607,18 +38735,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>709</v>
       </c>
@@ -38644,7 +38772,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>716</v>
       </c>
@@ -38671,7 +38799,7 @@
         <v>17065790429654.971</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>716</v>
       </c>
@@ -38698,7 +38826,7 @@
         <v>17554142592635.627</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>716</v>
       </c>
@@ -38725,7 +38853,7 @@
         <v>17814870616201.863</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>716</v>
       </c>
@@ -38752,7 +38880,7 @@
         <v>18219862664751.477</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>716</v>
       </c>
@@ -38779,7 +38907,7 @@
         <v>18740418262308.145</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>716</v>
       </c>
@@ -38806,7 +38934,7 @@
         <v>19260564565319.313</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>716</v>
       </c>
@@ -38833,7 +38961,7 @@
         <v>19570694229280.551</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>716</v>
       </c>
@@ -38860,7 +38988,7 @@
         <v>19846925958285.945</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>716</v>
       </c>
@@ -38887,7 +39015,7 @@
         <v>20136856085592.691</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>716</v>
       </c>
@@ -38914,7 +39042,7 @@
         <v>20449876595278.277</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>716</v>
       </c>
@@ -38941,7 +39069,7 @@
         <v>20785071453021.242</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>716</v>
       </c>
@@ -38968,7 +39096,7 @@
         <v>21137860487214.293</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>716</v>
       </c>
@@ -38995,7 +39123,7 @@
         <v>21504884905345.414</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>716</v>
       </c>
@@ -39022,7 +39150,7 @@
         <v>21883765124004.84</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>716</v>
       </c>
@@ -39049,7 +39177,7 @@
         <v>22272742778460.578</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>716</v>
       </c>
@@ -39076,7 +39204,7 @@
         <v>22670459610925.633</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>716</v>
       </c>
@@ -39103,7 +39231,7 @@
         <v>23076094349249.734</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>716</v>
       </c>
@@ -39130,7 +39258,7 @@
         <v>23489489056480.902</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>716</v>
       </c>
@@ -39157,7 +39285,7 @@
         <v>23911159659995.598</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>716</v>
       </c>
@@ -39184,7 +39312,7 @@
         <v>24342022194115.273</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>716</v>
       </c>
@@ -39211,7 +39339,7 @@
         <v>24783055867942.18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>716</v>
       </c>
@@ -39238,7 +39366,7 @@
         <v>25235197774058.039</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>716</v>
       </c>
@@ -39265,7 +39393,7 @@
         <v>25699353417654.18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>716</v>
       </c>
@@ -39292,7 +39420,7 @@
         <v>26176480949572.586</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>716</v>
       </c>
@@ -39319,7 +39447,7 @@
         <v>26667317408922.48</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>716</v>
       </c>
@@ -39346,7 +39474,7 @@
         <v>27172315548299.516</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>716</v>
       </c>
@@ -39373,7 +39501,7 @@
         <v>27691759654217.266</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>716</v>
       </c>
@@ -39400,7 +39528,7 @@
         <v>28225881367538.613</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>716</v>
       </c>
@@ -39427,7 +39555,7 @@
         <v>28774996562167.52</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>716</v>
       </c>
@@ -39454,7 +39582,7 @@
         <v>29339157883754.633</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>716</v>
       </c>
@@ -39481,7 +39609,7 @@
         <v>29918091574916.535</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>716</v>
       </c>
@@ -39508,7 +39636,7 @@
         <v>30511365941317.828</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>716</v>
       </c>
@@ -39535,7 +39663,7 @@
         <v>31118686167314.816</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>716</v>
       </c>
@@ -39562,7 +39690,7 @@
         <v>31739925903345.926</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>716</v>
       </c>
@@ -39589,7 +39717,7 @@
         <v>32374800862897.605</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>716</v>
       </c>
@@ -39616,7 +39744,7 @@
         <v>33022858293374.176</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>716</v>
       </c>
@@ -39643,7 +39771,7 @@
         <v>33683645442179.992</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>716</v>
       </c>
@@ -39670,7 +39798,7 @@
         <v>34357004372363.063</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>716</v>
       </c>
@@ -39697,7 +39825,7 @@
         <v>35043166724786.297</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>716</v>
       </c>
@@ -39724,7 +39852,7 @@
         <v>35742322023792.047</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>716</v>
       </c>
@@ -39751,7 +39879,7 @@
         <v>36454607148072.055</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>716</v>
       </c>
@@ -39778,7 +39906,7 @@
         <v>37180222151098.805</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>716</v>
       </c>
@@ -39805,7 +39933,7 @@
         <v>37919714547639.141</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>716</v>
       </c>
@@ -39832,7 +39960,7 @@
         <v>38674063546795.313</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>716</v>
       </c>
@@ -39859,7 +39987,7 @@
         <v>39444290474190.117</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>716</v>
       </c>
@@ -39886,7 +40014,7 @@
         <v>40231416655446.305</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>716</v>
       </c>
@@ -39929,27 +40057,27 @@
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="81" t="s">
         <v>670</v>
       </c>
@@ -39966,7 +40094,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -39991,7 +40119,7 @@
         <v>163691553017.76196</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -40015,7 +40143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="94" t="s">
         <v>41</v>
       </c>
@@ -40040,7 +40168,7 @@
         <v>8882156000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -40064,7 +40192,7 @@
         <v>3000032799.4918261</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -40088,7 +40216,7 @@
         <v>2513866266.6301575</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -40112,7 +40240,7 @@
         <v>167051044906.0816</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -40136,7 +40264,7 @@
         <v>4886991528.3478537</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -40160,7 +40288,7 @@
         <v>7704352786.1607113</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -40184,7 +40312,7 @@
         <v>19148097574.890411</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
         <v>10</v>
       </c>
@@ -40209,7 +40337,7 @@
         <v>80674713720.949799</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -40233,7 +40361,7 @@
         <v>31523404718.645531</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -40257,7 +40385,7 @@
         <v>89147579766.737061</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -40281,7 +40409,7 @@
         <v>23868210089.061165</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -40305,7 +40433,7 @@
         <v>3820221460.0671091</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -40329,7 +40457,7 @@
         <v>12745660084.7064</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -40353,7 +40481,7 @@
         <v>4334471004.0521097</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -40377,7 +40505,7 @@
         <v>4583041449.4689445</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -40401,7 +40529,7 @@
         <v>42807560952.236542</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -40425,7 +40553,7 @@
         <v>120729960594.97827</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -40449,7 +40577,7 @@
         <v>16342282572.670277</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -40473,7 +40601,7 @@
         <v>34876148152.842865</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -40497,7 +40625,7 @@
         <v>36570257431.205254</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -40521,7 +40649,7 @@
         <v>51631878791.184868</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -40545,7 +40673,7 @@
         <v>42084603476.142067</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -40569,7 +40697,7 @@
         <v>61847389411.10247</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -40593,7 +40721,7 @@
         <v>12745537368.626125</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -40617,7 +40745,7 @@
         <v>24601137636.38802</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -40641,7 +40769,7 @@
         <v>383199560757.97998</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -40665,7 +40793,7 @@
         <v>3929566757799.6553</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -40689,7 +40817,7 @@
         <v>142787769587.86914</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -40713,7 +40841,7 @@
         <v>251163376094.5889</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -40737,7 +40865,7 @@
         <v>224331422821.62311</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -40761,7 +40889,7 @@
         <v>276467303065.83545</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -40785,7 +40913,7 @@
         <v>993006196930.89136</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -40809,7 +40937,7 @@
         <v>1024791734103.3989</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
@@ -40833,7 +40961,7 @@
         <v>188992843115.87286</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -40857,7 +40985,7 @@
         <v>1022547183384.7538</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -40881,7 +41009,7 @@
         <v>692448439963.25037</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -40905,7 +41033,7 @@
         <v>68240059218.593658</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -40929,7 +41057,7 @@
         <v>699383702040.47571</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -40953,7 +41081,7 @@
         <v>97413756006.844589</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -40977,7 +41105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>673</v>
       </c>
@@ -40994,7 +41122,7 @@
         <v>11066152258452.063</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>674</v>
       </c>
@@ -41003,7 +41131,7 @@
         <v>1.294725405873931</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>675</v>
       </c>
@@ -41012,7 +41140,7 @@
         <v>0.91884310295571303</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>676</v>
       </c>
@@ -41021,7 +41149,7 @@
         <v>0.70968183584495281</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>679</v>
       </c>
@@ -41030,12 +41158,12 @@
         <v>0.91884310295571325</v>
       </c>
     </row>
-    <row r="58" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="83" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>2015</v>
       </c>
@@ -41145,7 +41273,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -41294,7 +41422,7 @@
         <v>0.61885683959722182</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>40</v>
       </c>
@@ -41443,7 +41571,7 @@
         <v>-0.10412346728661626</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="s">
         <v>41</v>
       </c>
@@ -41592,7 +41720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -41741,7 +41869,7 @@
         <v>0.1113722887876084</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -41890,7 +42018,7 @@
         <v>0.81444099514474599</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -42039,7 +42167,7 @@
         <v>0.58052834661118591</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -42188,7 +42316,7 @@
         <v>-0.3050103298159258</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -42337,7 +42465,7 @@
         <v>0.31456705071186419</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -42486,7 +42614,7 @@
         <v>8.6569342460954116E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="s">
         <v>10</v>
       </c>
@@ -42635,7 +42763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
@@ -42784,7 +42912,7 @@
         <v>0.6953849591842256</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
@@ -42933,7 +43061,7 @@
         <v>0.40319437989790796</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -43082,7 +43210,7 @@
         <v>0.60466721493397446</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>42</v>
       </c>
@@ -43231,7 +43359,7 @@
         <v>0.81107396152170164</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>43</v>
       </c>
@@ -43380,7 +43508,7 @@
         <v>0.52107418014605134</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>44</v>
       </c>
@@ -43529,7 +43657,7 @@
         <v>0.19339420544031441</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>45</v>
       </c>
@@ -43678,7 +43806,7 @@
         <v>0.41624774978992707</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -43827,7 +43955,7 @@
         <v>0.5081000243380045</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
@@ -43976,7 +44104,7 @@
         <v>0.84885756162665205</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
@@ -44125,7 +44253,7 @@
         <v>0.58929893529610056</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>15</v>
       </c>
@@ -44274,7 +44402,7 @@
         <v>0.60634721634570943</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -44423,7 +44551,7 @@
         <v>1.5161546678541142</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>17</v>
       </c>
@@ -44572,7 +44700,7 @@
         <v>0.74057399672302826</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -44721,7 +44849,7 @@
         <v>0.35283589594429143</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>46</v>
       </c>
@@ -44870,7 +44998,7 @@
         <v>0.45469317479999127</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
@@ -45019,7 +45147,7 @@
         <v>0.18454700834286947</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>48</v>
       </c>
@@ -45168,7 +45296,7 @@
         <v>0.52663159363811285</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>19</v>
       </c>
@@ -45317,7 +45445,7 @@
         <v>0.58158978821601093</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
@@ -45466,7 +45594,7 @@
         <v>1.1985607246857481</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
@@ -45615,7 +45743,7 @@
         <v>0.54686010214299363</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>22</v>
       </c>
@@ -45764,7 +45892,7 @@
         <v>0.8783222797137632</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>23</v>
       </c>
@@ -45913,7 +46041,7 @@
         <v>1.0030914794515273</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>24</v>
       </c>
@@ -46062,7 +46190,7 @@
         <v>0.91050903973911756</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>25</v>
       </c>
@@ -46211,7 +46339,7 @@
         <v>4.4728768163646837</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>26</v>
       </c>
@@ -46360,7 +46488,7 @@
         <v>0.41777493238096469</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>27</v>
       </c>
@@ -46509,7 +46637,7 @@
         <v>0.70538038574668216</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -46658,7 +46786,7 @@
         <v>0.9595502439787218</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>29</v>
       </c>
@@ -46807,7 +46935,7 @@
         <v>0.18669399243308149</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>30</v>
       </c>
@@ -46956,7 +47084,7 @@
         <v>0.40924048721644951</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -47105,7 +47233,7 @@
         <v>1.2055615012782275</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>32</v>
       </c>
@@ -47254,7 +47382,7 @@
         <v>0.83428681450847397</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>33</v>
       </c>
@@ -47417,18 +47545,18 @@
   <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="21" width="10.1796875" customWidth="1"/>
-    <col min="22" max="22" width="12.81640625" customWidth="1"/>
-    <col min="23" max="33" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
+    <col min="23" max="33" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>667</v>
       </c>
@@ -47527,7 +47655,7 @@
       </c>
       <c r="AG1" s="61"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>3</v>
       </c>
@@ -47656,7 +47784,7 @@
         <v>0.61885683959722182</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>40</v>
       </c>
@@ -47785,7 +47913,7 @@
         <v>-0.10412346728661626</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
         <v>41</v>
       </c>
@@ -47914,7 +48042,7 @@
         <v>1.7791941482285494</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
         <v>4</v>
       </c>
@@ -48043,7 +48171,7 @@
         <v>0.1113722887876084</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
         <v>5</v>
       </c>
@@ -48172,7 +48300,7 @@
         <v>0.81444099514474599</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
         <v>6</v>
       </c>
@@ -48301,7 +48429,7 @@
         <v>0.58052834661118591</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
         <v>7</v>
       </c>
@@ -48430,7 +48558,7 @@
         <v>-0.3050103298159258</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="88" t="s">
         <v>8</v>
       </c>
@@ -48559,7 +48687,7 @@
         <v>0.31456705071186419</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="88" t="s">
         <v>9</v>
       </c>
@@ -48688,7 +48816,7 @@
         <v>8.6569342460954116E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="88" t="s">
         <v>10</v>
       </c>
@@ -48817,7 +48945,7 @@
         <v>-0.24340151389640541</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="88" t="s">
         <v>36</v>
       </c>
@@ -48946,7 +49074,7 @@
         <v>0.6953849591842256</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="88" t="s">
         <v>37</v>
       </c>
@@ -49075,7 +49203,7 @@
         <v>0.40319437989790796</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
         <v>11</v>
       </c>
@@ -49204,7 +49332,7 @@
         <v>0.60466721493397446</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
         <v>42</v>
       </c>
@@ -49333,7 +49461,7 @@
         <v>0.81107396152170164</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="88" t="s">
         <v>43</v>
       </c>
@@ -49462,7 +49590,7 @@
         <v>0.52107418014605134</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="88" t="s">
         <v>44</v>
       </c>
@@ -49591,7 +49719,7 @@
         <v>0.19339420544031441</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="88" t="s">
         <v>45</v>
       </c>
@@ -49720,7 +49848,7 @@
         <v>0.41624774978992707</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="88" t="s">
         <v>12</v>
       </c>
@@ -49849,7 +49977,7 @@
         <v>0.5081000243380045</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="88" t="s">
         <v>13</v>
       </c>
@@ -49978,7 +50106,7 @@
         <v>0.84885756162665205</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="88" t="s">
         <v>14</v>
       </c>
@@ -50107,7 +50235,7 @@
         <v>0.58929893529610056</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="88" t="s">
         <v>15</v>
       </c>
@@ -50236,7 +50364,7 @@
         <v>0.60634721634570943</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="88" t="s">
         <v>16</v>
       </c>
@@ -50365,7 +50493,7 @@
         <v>1.5161546678541142</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="88" t="s">
         <v>17</v>
       </c>
@@ -50494,7 +50622,7 @@
         <v>0.74057399672302826</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="88" t="s">
         <v>18</v>
       </c>
@@ -50623,7 +50751,7 @@
         <v>0.35283589594429143</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="88" t="s">
         <v>46</v>
       </c>
@@ -50752,7 +50880,7 @@
         <v>0.45469317479999127</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
         <v>47</v>
       </c>
@@ -50881,7 +51009,7 @@
         <v>0.18454700834286947</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="88" t="s">
         <v>48</v>
       </c>
@@ -51010,7 +51138,7 @@
         <v>0.52663159363811285</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="88" t="s">
         <v>19</v>
       </c>
@@ -51139,7 +51267,7 @@
         <v>0.58158978821601093</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="88" t="s">
         <v>20</v>
       </c>
@@ -51268,7 +51396,7 @@
         <v>1.1985607246857481</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="88" t="s">
         <v>21</v>
       </c>
@@ -51397,7 +51525,7 @@
         <v>0.54686010214299363</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="88" t="s">
         <v>22</v>
       </c>
@@ -51526,7 +51654,7 @@
         <v>0.8783222797137632</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="88" t="s">
         <v>23</v>
       </c>
@@ -51655,7 +51783,7 @@
         <v>1.0030914794515273</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="88" t="s">
         <v>24</v>
       </c>
@@ -51784,7 +51912,7 @@
         <v>0.91050903973911756</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="88" t="s">
         <v>25</v>
       </c>
@@ -51913,7 +52041,7 @@
         <v>4.4728768163646837</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="88" t="s">
         <v>26</v>
       </c>
@@ -52042,7 +52170,7 @@
         <v>0.41777493238096469</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="88" t="s">
         <v>27</v>
       </c>
@@ -52171,7 +52299,7 @@
         <v>0.70538038574668216</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="88" t="s">
         <v>28</v>
       </c>
@@ -52300,7 +52428,7 @@
         <v>0.9595502439787218</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="88" t="s">
         <v>29</v>
       </c>
@@ -52429,7 +52557,7 @@
         <v>0.18669399243308149</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="88" t="s">
         <v>30</v>
       </c>
@@ -52558,7 +52686,7 @@
         <v>0.40924048721644951</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="88" t="s">
         <v>31</v>
       </c>
@@ -52687,7 +52815,7 @@
         <v>1.2055615012782275</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="88" t="s">
         <v>32</v>
       </c>
@@ -52816,7 +52944,7 @@
         <v>0.83428681450847397</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="88" t="s">
         <v>33</v>
       </c>
